--- a/szeregi_czasowe.xlsx
+++ b/szeregi_czasowe.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakub\Documents\bb_replication_pl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC79A694-6326-4EE7-A0B9-1842CAE13F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0051535D-C961-4134-AD9B-4D5B01B498C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="5210" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="szeregi_qq" sheetId="4" r:id="rId1"/>
-    <sheet name="szeregi_qq_n_adj" sheetId="3" r:id="rId2"/>
-    <sheet name="szeregi_yy" sheetId="1" r:id="rId3"/>
-    <sheet name="źródła" sheetId="2" r:id="rId4"/>
+    <sheet name="szeregi_qq_new" sheetId="5" r:id="rId2"/>
+    <sheet name="szeregi_qq_n_adj" sheetId="3" r:id="rId3"/>
+    <sheet name="szeregi_yy" sheetId="1" r:id="rId4"/>
+    <sheet name="źródła" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>gp</t>
   </si>
@@ -210,6 +211,12 @@
   </si>
   <si>
     <t>odsezonowanie własne</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -568,17 +575,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360F257-9385-481D-96EE-FF1EF5BD4DB6}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="A1:K107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -613,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>35431</v>
       </c>
@@ -630,7 +640,7 @@
         <v>1.38518329121303</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>35521</v>
       </c>
@@ -647,7 +657,7 @@
         <v>0.79410687923157697</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>35612</v>
       </c>
@@ -664,7 +674,7 @@
         <v>0.39969927308432301</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>35704</v>
       </c>
@@ -681,7 +691,7 @@
         <v>0.42331172546887702</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>35796</v>
       </c>
@@ -698,7 +708,7 @@
         <v>0.24188350414624399</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>35886</v>
       </c>
@@ -715,7 +725,7 @@
         <v>-2.34577187428044E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>35977</v>
       </c>
@@ -732,7 +742,7 @@
         <v>9.2747945506261004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>36069</v>
       </c>
@@ -749,7 +759,7 @@
         <v>0.51246689981736804</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>36161</v>
       </c>
@@ -766,7 +776,7 @@
         <v>0.52462405361841002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>36251</v>
       </c>
@@ -783,7 +793,7 @@
         <v>0.74907883365253203</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>36342</v>
       </c>
@@ -800,7 +810,7 @@
         <v>0.77923218619027002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>36434</v>
       </c>
@@ -817,7 +827,7 @@
         <v>0.71963620904014602</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>36526</v>
       </c>
@@ -840,7 +850,7 @@
         <v>0.59119509561058603</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>36617</v>
       </c>
@@ -863,7 +873,7 @@
         <v>0.66262493407801004</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>36708</v>
       </c>
@@ -886,7 +896,7 @@
         <v>0.596060023241477</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>36800</v>
       </c>
@@ -909,7 +919,7 @@
         <v>0.82238312768725996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>36892</v>
       </c>
@@ -932,7 +942,7 @@
         <v>0.73478853896740703</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36982</v>
       </c>
@@ -955,7 +965,7 @@
         <v>0.65943208652335195</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -978,7 +988,7 @@
         <v>0.73970454475326597</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>37165</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>0.74445033995409904</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>37257</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>0.79904188956345401</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>37347</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>0.84072954097254604</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>37438</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>0.93424407379896401</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>37530</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>0.74120189196142405</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>0.82543603582159597</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>37712</v>
       </c>
@@ -1160,7 +1170,7 @@
         <v>0.88160193338569504</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>37803</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>1.0105666571896099</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>37895</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>0.70482698783023001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>37987</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>1.0814295537016501</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>38078</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>0.86362622825646396</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>38169</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>0.60124125396987405</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>38261</v>
       </c>
@@ -1334,7 +1344,7 @@
         <v>0.68885924072921501</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>38353</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>0.84810117456004197</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>38443</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>0.74157765024220601</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>38534</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>0.76712873121928704</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>38626</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>0.79402865798228095</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>38718</v>
       </c>
@@ -1510,7 +1520,7 @@
         <v>0.87578577386366796</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38808</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>0.81731736062509697</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38899</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>0.68250362374915596</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>38991</v>
       </c>
@@ -1618,7 +1628,7 @@
         <v>0.33522998279902</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39083</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>1.06702253502994</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39173</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>0.67467465313035202</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39264</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>0.81408206409079698</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39356</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>0.65043780608644397</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>39448</v>
       </c>
@@ -1798,7 +1808,7 @@
         <v>0.57419304105941604</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>39539</v>
       </c>
@@ -1834,7 +1844,7 @@
         <v>0.64577301550403299</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>39630</v>
       </c>
@@ -1870,7 +1880,7 @@
         <v>0.50310734233988796</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>39722</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>0.59868795079715598</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39814</v>
       </c>
@@ -1942,7 +1952,7 @@
         <v>0.66677986732469197</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39904</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>0.590331031443454</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39995</v>
       </c>
@@ -2014,7 +2024,7 @@
         <v>0.70690130304996002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40087</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>0.81342938214544303</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40179</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>0.79992497011728803</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40269</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>0.73376165873615595</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40360</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>0.76039146988746598</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40452</v>
       </c>
@@ -2194,7 +2204,7 @@
         <v>0.77237249658648399</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40544</v>
       </c>
@@ -2230,7 +2240,7 @@
         <v>0.870256864022252</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>40634</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>0.81639008111508804</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>40725</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>0.83587019056297096</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>40817</v>
       </c>
@@ -2338,7 +2348,7 @@
         <v>0.78539837209254404</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>40909</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>0.74618549486702002</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41000</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>0.60187349729572703</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41091</v>
       </c>
@@ -2446,7 +2456,7 @@
         <v>0.68344606727757196</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41183</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>0.68151875269033702</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41275</v>
       </c>
@@ -2518,7 +2528,7 @@
         <v>0.63014462044948505</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41365</v>
       </c>
@@ -2554,7 +2564,7 @@
         <v>0.65547013202350901</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -2590,7 +2600,7 @@
         <v>0.68874906749310505</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41548</v>
       </c>
@@ -2626,7 +2636,7 @@
         <v>0.60290087674633197</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41640</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>0.609770855448317</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41730</v>
       </c>
@@ -2698,7 +2708,7 @@
         <v>0.67798257531441597</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41821</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>0.60344404567092602</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41913</v>
       </c>
@@ -2770,7 +2780,7 @@
         <v>0.65100949614604497</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42005</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>0.70567993997067902</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42095</v>
       </c>
@@ -2842,7 +2852,7 @@
         <v>0.61114435173541803</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42186</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>0.62206914198701202</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42278</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>0.57287348012853501</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42370</v>
       </c>
@@ -2950,7 +2960,7 @@
         <v>0.61291521983257202</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42461</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>0.71566362865816302</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42552</v>
       </c>
@@ -3022,7 +3032,7 @@
         <v>0.58048471726337403</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42644</v>
       </c>
@@ -3058,7 +3068,7 @@
         <v>0.72014109862369902</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42736</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>0.67245225353367699</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42826</v>
       </c>
@@ -3130,7 +3140,7 @@
         <v>0.62627276291382805</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42917</v>
       </c>
@@ -3166,7 +3176,7 @@
         <v>0.77800486869242003</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43009</v>
       </c>
@@ -3202,7 +3212,7 @@
         <v>0.81168040795422702</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43101</v>
       </c>
@@ -3238,7 +3248,7 @@
         <v>0.82265513514181499</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43191</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>0.66918257643932499</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43282</v>
       </c>
@@ -3310,7 +3320,7 @@
         <v>0.83427257518708497</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43374</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>0.94833943584538305</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43466</v>
       </c>
@@ -3382,7 +3392,7 @@
         <v>0.87183394173879902</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43556</v>
       </c>
@@ -3418,7 +3428,7 @@
         <v>0.69019860602359895</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43647</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>0.81922162685516697</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43739</v>
       </c>
@@ -3490,7 +3500,7 @@
         <v>0.852110914987662</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43831</v>
       </c>
@@ -3526,7 +3536,7 @@
         <v>0.691176890388291</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43922</v>
       </c>
@@ -3562,7 +3572,7 @@
         <v>-0.53202032883636696</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44013</v>
       </c>
@@ -3598,7 +3608,7 @@
         <v>1.3788019730332099</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44105</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>0.46522871398504101</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44197</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>0.859798109201108</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44287</v>
       </c>
@@ -3706,7 +3716,7 @@
         <v>0.67488397148184698</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44378</v>
       </c>
@@ -3742,7 +3752,7 @@
         <v>0.71693853753897896</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44470</v>
       </c>
@@ -3778,7 +3788,7 @@
         <v>0.73302541271335997</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44562</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>1.3465509172715899</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44652</v>
       </c>
@@ -3850,7 +3860,7 @@
         <v>0.28941039757839299</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44743</v>
       </c>
@@ -3886,7 +3896,7 @@
         <v>0.842558530134212</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44835</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>0.204334397003023</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44927</v>
       </c>
@@ -3958,7 +3968,7 @@
         <v>1.0486454767993501</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45017</v>
       </c>
@@ -3978,6 +3988,4057 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B327F7-B3A5-45BA-B4CF-7C588D24E8A5}">
+  <dimension ref="A1:M107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>35431</v>
+      </c>
+      <c r="B2">
+        <v>3.3425344395242802</v>
+      </c>
+      <c r="G2">
+        <v>10.060975609756101</v>
+      </c>
+      <c r="H2">
+        <v>1.6669402874721</v>
+      </c>
+      <c r="K2">
+        <v>1.38518329121303</v>
+      </c>
+      <c r="L2">
+        <v>77.633163893211801</v>
+      </c>
+      <c r="M2">
+        <v>2199.4127997292799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>35521</v>
+      </c>
+      <c r="B3">
+        <v>3.6480828726948702</v>
+      </c>
+      <c r="G3">
+        <v>0.83102493074791495</v>
+      </c>
+      <c r="H3">
+        <v>4.9511926589827899</v>
+      </c>
+      <c r="K3">
+        <v>0.79410687923157697</v>
+      </c>
+      <c r="L3">
+        <v>78.655228911638503</v>
+      </c>
+      <c r="M3">
+        <v>2077.4863425981098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>35612</v>
+      </c>
+      <c r="B4">
+        <v>2.612782954749</v>
+      </c>
+      <c r="G4">
+        <v>2.4725274725274602</v>
+      </c>
+      <c r="H4">
+        <v>0.62801409316719503</v>
+      </c>
+      <c r="K4">
+        <v>0.39969927308432301</v>
+      </c>
+      <c r="L4">
+        <v>75.795051188537101</v>
+      </c>
+      <c r="M4">
+        <v>1969.39371849793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>35704</v>
+      </c>
+      <c r="B5">
+        <v>3.00708413792298</v>
+      </c>
+      <c r="G5">
+        <v>1.34048257372654</v>
+      </c>
+      <c r="H5">
+        <v>2.4069208706076699</v>
+      </c>
+      <c r="K5">
+        <v>0.42331172546887702</v>
+      </c>
+      <c r="L5">
+        <v>69.513874302234996</v>
+      </c>
+      <c r="M5">
+        <v>1847.3269546531601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>35796</v>
+      </c>
+      <c r="B6">
+        <v>4.0097372568138603</v>
+      </c>
+      <c r="G6">
+        <v>11.3756613756613</v>
+      </c>
+      <c r="H6">
+        <v>2.3085062092584301</v>
+      </c>
+      <c r="K6">
+        <v>0.24188350414624399</v>
+      </c>
+      <c r="L6">
+        <v>69.311329292675595</v>
+      </c>
+      <c r="M6">
+        <v>1764.4232088584799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>35886</v>
+      </c>
+      <c r="B7">
+        <v>1.86140040045799</v>
+      </c>
+      <c r="G7">
+        <v>-0.23752969121140599</v>
+      </c>
+      <c r="H7">
+        <v>1.3416364863630501</v>
+      </c>
+      <c r="K7">
+        <v>-2.34577187428044E-2</v>
+      </c>
+      <c r="L7">
+        <v>60.333246669184298</v>
+      </c>
+      <c r="M7">
+        <v>1728.6186025808599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>35977</v>
+      </c>
+      <c r="B8">
+        <v>1.2237354253171</v>
+      </c>
+      <c r="G8">
+        <v>0.47619047619048099</v>
+      </c>
+      <c r="H8">
+        <v>-0.65503343167428296</v>
+      </c>
+      <c r="K8">
+        <v>9.2747945506261004E-2</v>
+      </c>
+      <c r="L8">
+        <v>62.297571070451603</v>
+      </c>
+      <c r="M8">
+        <v>1739.7326889637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>36069</v>
+      </c>
+      <c r="B9">
+        <v>1.2171723105236001</v>
+      </c>
+      <c r="G9">
+        <v>0.71090047393364797</v>
+      </c>
+      <c r="H9">
+        <v>-0.70452168385744995</v>
+      </c>
+      <c r="K9">
+        <v>0.51246689981736804</v>
+      </c>
+      <c r="L9">
+        <v>61.266333827618901</v>
+      </c>
+      <c r="M9">
+        <v>1796.7887194835901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>36161</v>
+      </c>
+      <c r="B10">
+        <v>1.8275514607802801</v>
+      </c>
+      <c r="G10">
+        <v>4.7058823529411802</v>
+      </c>
+      <c r="H10">
+        <v>6.66295127849139E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.52462405361841002</v>
+      </c>
+      <c r="L10">
+        <v>56.0846666353793</v>
+      </c>
+      <c r="M10">
+        <v>2001.1769039897099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>36251</v>
+      </c>
+      <c r="B11">
+        <v>1.82154160201794</v>
+      </c>
+      <c r="G11">
+        <v>2.47191011235953</v>
+      </c>
+      <c r="H11">
+        <v>0.49069892528328302</v>
+      </c>
+      <c r="K11">
+        <v>0.74907883365253203</v>
+      </c>
+      <c r="L11">
+        <v>56.981929914843597</v>
+      </c>
+      <c r="M11">
+        <v>2105.5066514750702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>36342</v>
+      </c>
+      <c r="B12">
+        <v>2.6955852862307901</v>
+      </c>
+      <c r="G12">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="H12">
+        <v>2.7367524243926402</v>
+      </c>
+      <c r="K12">
+        <v>0.77923218619027002</v>
+      </c>
+      <c r="L12">
+        <v>54.863931279887296</v>
+      </c>
+      <c r="M12">
+        <v>2212.1682260681901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>36434</v>
+      </c>
+      <c r="B13">
+        <v>2.9696103464677401</v>
+      </c>
+      <c r="G13">
+        <v>3.7894736842105199</v>
+      </c>
+      <c r="H13">
+        <v>2.8443482693772402</v>
+      </c>
+      <c r="K13">
+        <v>0.71963620904014602</v>
+      </c>
+      <c r="L13">
+        <v>58.038790202931601</v>
+      </c>
+      <c r="M13">
+        <v>2305.0688044210901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>36526</v>
+      </c>
+      <c r="B14">
+        <v>2.49569826101256</v>
+      </c>
+      <c r="G14">
+        <v>3.0425963488843699</v>
+      </c>
+      <c r="H14">
+        <v>2.8149486664865</v>
+      </c>
+      <c r="I14">
+        <v>2.2711604053907802E-2</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>0.59119509561058603</v>
+      </c>
+      <c r="L14">
+        <v>54.050427223907597</v>
+      </c>
+      <c r="M14">
+        <v>2407.3321749461202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>36617</v>
+      </c>
+      <c r="B15">
+        <v>2.0132036448023301</v>
+      </c>
+      <c r="G15">
+        <v>5.3149606299212699</v>
+      </c>
+      <c r="H15">
+        <v>1.3796784561043001</v>
+      </c>
+      <c r="I15">
+        <v>2.1393369764516099E-2</v>
+      </c>
+      <c r="J15">
+        <v>7.8</v>
+      </c>
+      <c r="K15">
+        <v>0.66262493407801004</v>
+      </c>
+      <c r="L15">
+        <v>52.777721412962201</v>
+      </c>
+      <c r="M15">
+        <v>2474.5899007057801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>36708</v>
+      </c>
+      <c r="B16">
+        <v>2.3119267873199001</v>
+      </c>
+      <c r="G16">
+        <v>1.1214953271028201</v>
+      </c>
+      <c r="H16">
+        <v>3.9825463555725502</v>
+      </c>
+      <c r="I16">
+        <v>1.8957059846464099E-2</v>
+      </c>
+      <c r="J16">
+        <v>7.2</v>
+      </c>
+      <c r="K16">
+        <v>0.596060023241477</v>
+      </c>
+      <c r="L16">
+        <v>48.652709392770099</v>
+      </c>
+      <c r="M16">
+        <v>2567.96200684737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>36800</v>
+      </c>
+      <c r="B17">
+        <v>1.2918247505637299</v>
+      </c>
+      <c r="G17">
+        <v>0.73937153419592505</v>
+      </c>
+      <c r="H17">
+        <v>0.120668286780414</v>
+      </c>
+      <c r="I17">
+        <v>1.7294579253926801E-2</v>
+      </c>
+      <c r="J17">
+        <v>6.8</v>
+      </c>
+      <c r="K17">
+        <v>0.82238312768725996</v>
+      </c>
+      <c r="L17">
+        <v>46.070783104994099</v>
+      </c>
+      <c r="M17">
+        <v>2655.58788236999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>36892</v>
+      </c>
+      <c r="B18">
+        <v>0.50320859125790196</v>
+      </c>
+      <c r="G18">
+        <v>0.55045871559633497</v>
+      </c>
+      <c r="H18">
+        <v>0.237215677200765</v>
+      </c>
+      <c r="I18">
+        <v>1.3838318540405599E-2</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>0.73478853896740703</v>
+      </c>
+      <c r="L18">
+        <v>37.794150765299797</v>
+      </c>
+      <c r="M18">
+        <v>2745.1712333969699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>36982</v>
+      </c>
+      <c r="B19">
+        <v>1.89267253026204</v>
+      </c>
+      <c r="G19">
+        <v>1.2773722627737301</v>
+      </c>
+      <c r="H19">
+        <v>2.8647828889824098</v>
+      </c>
+      <c r="I19">
+        <v>1.40463599337781E-2</v>
+      </c>
+      <c r="J19">
+        <v>4.7</v>
+      </c>
+      <c r="K19">
+        <v>0.65943208652335195</v>
+      </c>
+      <c r="L19">
+        <v>40.293486932725301</v>
+      </c>
+      <c r="M19">
+        <v>2875.4903885666099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>37073</v>
+      </c>
+      <c r="B20">
+        <v>0.28889507197011699</v>
+      </c>
+      <c r="G20">
+        <v>2.34234234234233</v>
+      </c>
+      <c r="H20">
+        <v>-1.2108828991418701</v>
+      </c>
+      <c r="I20">
+        <v>1.30979352514631E-2</v>
+      </c>
+      <c r="J20">
+        <v>4.7</v>
+      </c>
+      <c r="K20">
+        <v>0.73970454475326597</v>
+      </c>
+      <c r="L20">
+        <v>38.8537412551239</v>
+      </c>
+      <c r="M20">
+        <v>2962.59218817486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>37165</v>
+      </c>
+      <c r="B21">
+        <v>0.69445687699847203</v>
+      </c>
+      <c r="C21">
+        <v>0.33553265552622202</v>
+      </c>
+      <c r="G21">
+        <v>-0.17605633802816101</v>
+      </c>
+      <c r="H21">
+        <v>5.5950591456948501E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.2048351743221299E-2</v>
+      </c>
+      <c r="J21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.74445033995409904</v>
+      </c>
+      <c r="L21">
+        <v>36.971349141443298</v>
+      </c>
+      <c r="M21">
+        <v>3063.3049098145998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>37257</v>
+      </c>
+      <c r="B22">
+        <v>0.61615640852350795</v>
+      </c>
+      <c r="C22">
+        <v>-4.1423364778570004</v>
+      </c>
+      <c r="G22">
+        <v>0.352733686067011</v>
+      </c>
+      <c r="H22">
+        <v>0.970868463183435</v>
+      </c>
+      <c r="I22">
+        <v>1.3694323824840499E-2</v>
+      </c>
+      <c r="J22">
+        <v>3.2</v>
+      </c>
+      <c r="K22">
+        <v>0.79904188956345401</v>
+      </c>
+      <c r="L22">
+        <v>42.586904408151099</v>
+      </c>
+      <c r="M22">
+        <v>3127.9240901785001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>37347</v>
+      </c>
+      <c r="B23">
+        <v>-0.36716897029165801</v>
+      </c>
+      <c r="C23">
+        <v>5.2656951034575501</v>
+      </c>
+      <c r="G23">
+        <v>1.05448154657293</v>
+      </c>
+      <c r="H23">
+        <v>-2.1953716138006101</v>
+      </c>
+      <c r="I23">
+        <v>1.3415154088854599E-2</v>
+      </c>
+      <c r="J23">
+        <v>4.8</v>
+      </c>
+      <c r="K23">
+        <v>0.84072954097254604</v>
+      </c>
+      <c r="L23">
+        <v>42.0610088147711</v>
+      </c>
+      <c r="M23">
+        <v>3139.7105267592201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>37438</v>
+      </c>
+      <c r="B24">
+        <v>0.34113693604282902</v>
+      </c>
+      <c r="C24">
+        <v>1.13249287318457</v>
+      </c>
+      <c r="G24">
+        <v>2.9565217391304301</v>
+      </c>
+      <c r="H24">
+        <v>-0.83488109377147102</v>
+      </c>
+      <c r="I24">
+        <v>1.4967112887323801E-2</v>
+      </c>
+      <c r="J24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K24">
+        <v>0.93424407379896401</v>
+      </c>
+      <c r="L24">
+        <v>47.685706252502797</v>
+      </c>
+      <c r="M24">
+        <v>3182.4711164822002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>37530</v>
+      </c>
+      <c r="B25">
+        <v>0.16509125975905101</v>
+      </c>
+      <c r="C25">
+        <v>1.1379996233195699</v>
+      </c>
+      <c r="G25">
+        <v>0.84459459459460995</v>
+      </c>
+      <c r="H25">
+        <v>-0.63675247860255901</v>
+      </c>
+      <c r="I25">
+        <v>1.6669836960364399E-2</v>
+      </c>
+      <c r="J25">
+        <v>5.5</v>
+      </c>
+      <c r="K25">
+        <v>0.74120189196142405</v>
+      </c>
+      <c r="L25">
+        <v>53.357587397082398</v>
+      </c>
+      <c r="M25">
+        <v>3189.3920604682598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>37622</v>
+      </c>
+      <c r="B26">
+        <v>0.32581430167715503</v>
+      </c>
+      <c r="C26">
+        <v>1.10065624749324</v>
+      </c>
+      <c r="G26">
+        <v>2.6800670016750199</v>
+      </c>
+      <c r="H26">
+        <v>-9.0252311975788799E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.6213113353365199E-2</v>
+      </c>
+      <c r="J26">
+        <v>7.1</v>
+      </c>
+      <c r="K26">
+        <v>0.82543603582159597</v>
+      </c>
+      <c r="L26">
+        <v>51.488029292839201</v>
+      </c>
+      <c r="M26">
+        <v>3197.7698196176498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>37712</v>
+      </c>
+      <c r="B27">
+        <v>-0.173832156762003</v>
+      </c>
+      <c r="C27">
+        <v>0.96180144271842405</v>
+      </c>
+      <c r="G27">
+        <v>-2.6101141924959101</v>
+      </c>
+      <c r="H27">
+        <v>0.64582017943502001</v>
+      </c>
+      <c r="I27">
+        <v>1.9055111039654699E-2</v>
+      </c>
+      <c r="J27">
+        <v>6.3</v>
+      </c>
+      <c r="K27">
+        <v>0.88160193338569504</v>
+      </c>
+      <c r="L27">
+        <v>60.834287228949499</v>
+      </c>
+      <c r="M27">
+        <v>3196.2913597193501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>37803</v>
+      </c>
+      <c r="B28">
+        <v>0.41133781101454697</v>
+      </c>
+      <c r="C28">
+        <v>0.24980852608864201</v>
+      </c>
+      <c r="G28">
+        <v>2.3450586264656499</v>
+      </c>
+      <c r="H28">
+        <v>0.29533113057573201</v>
+      </c>
+      <c r="I28">
+        <v>2.1725362104374198E-2</v>
+      </c>
+      <c r="J28">
+        <v>6.4</v>
+      </c>
+      <c r="K28">
+        <v>1.0105666571896099</v>
+      </c>
+      <c r="L28">
+        <v>69.005645582682504</v>
+      </c>
+      <c r="M28">
+        <v>3163.2409673587299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>37895</v>
+      </c>
+      <c r="B29">
+        <v>1.1258383250130399</v>
+      </c>
+      <c r="C29">
+        <v>1.03140643239645</v>
+      </c>
+      <c r="G29">
+        <v>1.14566284779049</v>
+      </c>
+      <c r="H29">
+        <v>1.31095313389477</v>
+      </c>
+      <c r="I29">
+        <v>1.9787617609110599E-2</v>
+      </c>
+      <c r="J29">
+        <v>6.9</v>
+      </c>
+      <c r="K29">
+        <v>0.70482698783023001</v>
+      </c>
+      <c r="L29">
+        <v>62.515203887541801</v>
+      </c>
+      <c r="M29">
+        <v>3162.91897311713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>37987</v>
+      </c>
+      <c r="B30">
+        <v>0.49375960978206002</v>
+      </c>
+      <c r="C30">
+        <v>1.0834579393534001</v>
+      </c>
+      <c r="G30">
+        <v>2.1035598705501699</v>
+      </c>
+      <c r="H30">
+        <v>0.89530760138198595</v>
+      </c>
+      <c r="I30">
+        <v>2.2224083472544301E-2</v>
+      </c>
+      <c r="J30">
+        <v>7.8</v>
+      </c>
+      <c r="K30">
+        <v>1.0814295537016501</v>
+      </c>
+      <c r="L30">
+        <v>69.595883477934606</v>
+      </c>
+      <c r="M30">
+        <v>3162.00852536192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>38078</v>
+      </c>
+      <c r="B31">
+        <v>2.2552608761575201</v>
+      </c>
+      <c r="C31">
+        <v>1.7650440351480301</v>
+      </c>
+      <c r="D31">
+        <v>0.48932952463802692</v>
+      </c>
+      <c r="E31">
+        <v>0.66674207269861174</v>
+      </c>
+      <c r="G31">
+        <v>2.69413629160062</v>
+      </c>
+      <c r="H31">
+        <v>5.2221335214881401</v>
+      </c>
+      <c r="I31">
+        <v>2.07798972198266E-2</v>
+      </c>
+      <c r="J31">
+        <v>9.6</v>
+      </c>
+      <c r="K31">
+        <v>0.86362622825646396</v>
+      </c>
+      <c r="L31">
+        <v>64.865237990048399</v>
+      </c>
+      <c r="M31">
+        <v>3125.3225823232601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>38169</v>
+      </c>
+      <c r="B32">
+        <v>0.59642826752231304</v>
+      </c>
+      <c r="C32">
+        <v>1.72870634940427</v>
+      </c>
+      <c r="D32">
+        <v>0.46349284388207401</v>
+      </c>
+      <c r="E32">
+        <v>0.65354756729520957</v>
+      </c>
+      <c r="G32">
+        <v>1.2345679012345601</v>
+      </c>
+      <c r="H32">
+        <v>0.32464336777331898</v>
+      </c>
+      <c r="I32">
+        <v>2.0516264559461699E-2</v>
+      </c>
+      <c r="J32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K32">
+        <v>0.60124125396987405</v>
+      </c>
+      <c r="L32">
+        <v>63.194690609048997</v>
+      </c>
+      <c r="M32">
+        <v>3082.2153894388798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>38261</v>
+      </c>
+      <c r="B33">
+        <v>0.89604783425176004</v>
+      </c>
+      <c r="C33">
+        <v>0.142926371822099</v>
+      </c>
+      <c r="D33">
+        <v>0.42449471589252052</v>
+      </c>
+      <c r="E33">
+        <v>0.63364111694290681</v>
+      </c>
+      <c r="G33">
+        <v>0.91463414634147</v>
+      </c>
+      <c r="H33">
+        <v>1.10733219771317</v>
+      </c>
+      <c r="I33">
+        <v>2.3083714345743401E-2</v>
+      </c>
+      <c r="J33">
+        <v>9.1</v>
+      </c>
+      <c r="K33">
+        <v>0.68885924072921501</v>
+      </c>
+      <c r="L33">
+        <v>69.448077926394305</v>
+      </c>
+      <c r="M33">
+        <v>3013.5370514828501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>38353</v>
+      </c>
+      <c r="B34">
+        <v>-0.30262339392447701</v>
+      </c>
+      <c r="C34">
+        <v>1.5644704209582001</v>
+      </c>
+      <c r="D34">
+        <v>0.31819062404561116</v>
+      </c>
+      <c r="E34">
+        <v>0.57943680912753148</v>
+      </c>
+      <c r="G34">
+        <v>0.75528700906343704</v>
+      </c>
+      <c r="H34">
+        <v>-1.0138406196985399</v>
+      </c>
+      <c r="I34">
+        <v>2.3975664951650801E-2</v>
+      </c>
+      <c r="J34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K34">
+        <v>0.84810117456004197</v>
+      </c>
+      <c r="L34">
+        <v>70.264574721673</v>
+      </c>
+      <c r="M34">
+        <v>2940.55381093818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>38443</v>
+      </c>
+      <c r="B35">
+        <v>0.24469621443886</v>
+      </c>
+      <c r="C35">
+        <v>0.25423573319159198</v>
+      </c>
+      <c r="D35">
+        <v>0.27852794092479982</v>
+      </c>
+      <c r="E35">
+        <v>0.55923398825870052</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(B32:B35)-D31</f>
+        <v>-0.13069229406591293</v>
+      </c>
+      <c r="G35">
+        <v>1.9490254872563699</v>
+      </c>
+      <c r="H35">
+        <v>-0.18557362561577401</v>
+      </c>
+      <c r="I35">
+        <v>2.4182148727283002E-2</v>
+      </c>
+      <c r="J35">
+        <v>6.6</v>
+      </c>
+      <c r="K35">
+        <v>0.74157765024220601</v>
+      </c>
+      <c r="L35">
+        <v>70.025838377409301</v>
+      </c>
+      <c r="M35">
+        <v>2899.9172197514899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>38534</v>
+      </c>
+      <c r="B36">
+        <v>0.98399636712420602</v>
+      </c>
+      <c r="C36">
+        <v>0.99065993091920701</v>
+      </c>
+      <c r="D36">
+        <v>0.34540027297955689</v>
+      </c>
+      <c r="E36">
+        <v>0.5933009348279894</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F99" si="0">AVERAGE(B33:B36)-D32</f>
+        <v>-7.9635884094867437E-3</v>
+      </c>
+      <c r="G36">
+        <v>4.2647058823529402</v>
+      </c>
+      <c r="H36">
+        <v>0.80699251305259101</v>
+      </c>
+      <c r="I36">
+        <v>2.69299281454378E-2</v>
+      </c>
+      <c r="J36">
+        <v>7.8</v>
+      </c>
+      <c r="K36">
+        <v>0.76712873121928704</v>
+      </c>
+      <c r="L36">
+        <v>76.981722155008399</v>
+      </c>
+      <c r="M36">
+        <v>2857.1443146357101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>38626</v>
+      </c>
+      <c r="B37">
+        <v>-0.14886766383460701</v>
+      </c>
+      <c r="C37">
+        <v>2.4407668076500602</v>
+      </c>
+      <c r="D37">
+        <v>0.30131262917760804</v>
+      </c>
+      <c r="E37">
+        <v>0.57083512747537757</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-0.23019433494152503</v>
+      </c>
+      <c r="G37">
+        <v>-1.8335684062059401</v>
+      </c>
+      <c r="H37">
+        <v>-0.81569088651585198</v>
+      </c>
+      <c r="I37">
+        <v>2.8643817482269102E-2</v>
+      </c>
+      <c r="J37">
+        <v>8.6</v>
+      </c>
+      <c r="K37">
+        <v>0.79402865798228095</v>
+      </c>
+      <c r="L37">
+        <v>79.729121706284801</v>
+      </c>
+      <c r="M37">
+        <v>2783.02766766786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>38718</v>
+      </c>
+      <c r="B38">
+        <v>-9.6345754868934805E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.244277856407322</v>
+      </c>
+      <c r="D38">
+        <v>0.2377554449752628</v>
+      </c>
+      <c r="E38">
+        <v>0.53847377682627595</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-7.2320833330730083E-2</v>
+      </c>
+      <c r="G38">
+        <v>-0.143678160919535</v>
+      </c>
+      <c r="H38">
+        <v>-0.44919930979999301</v>
+      </c>
+      <c r="I38">
+        <v>3.14034320827936E-2</v>
+      </c>
+      <c r="J38">
+        <v>6.9</v>
+      </c>
+      <c r="K38">
+        <v>0.87578577386366796</v>
+      </c>
+      <c r="L38">
+        <v>84.684800693301796</v>
+      </c>
+      <c r="M38">
+        <v>2713.3803871093601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38808</v>
+      </c>
+      <c r="B39">
+        <v>0.63875620489770302</v>
+      </c>
+      <c r="C39">
+        <v>1.0887248967668699</v>
+      </c>
+      <c r="D39">
+        <v>0.24015900033231841</v>
+      </c>
+      <c r="E39">
+        <v>0.53969338108812437</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>6.5856847404791974E-2</v>
+      </c>
+      <c r="G39">
+        <v>4.7482014388489002</v>
+      </c>
+      <c r="H39">
+        <v>0.52306992015704101</v>
+      </c>
+      <c r="I39">
+        <v>3.6210214882644198E-2</v>
+      </c>
+      <c r="J39">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K39">
+        <v>0.81731736062509697</v>
+      </c>
+      <c r="L39">
+        <v>94.311282681175996</v>
+      </c>
+      <c r="M39">
+        <v>2608.5789436999198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>38899</v>
+      </c>
+      <c r="B40">
+        <v>0.95121723308193296</v>
+      </c>
+      <c r="C40">
+        <v>1.6305882912965599</v>
+      </c>
+      <c r="D40">
+        <v>0.32250070089285821</v>
+      </c>
+      <c r="E40">
+        <v>0.58161811764760873</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-9.2102681605333303E-3</v>
+      </c>
+      <c r="G40">
+        <v>1.0989010989010899</v>
+      </c>
+      <c r="H40">
+        <v>2.2958471863759602</v>
+      </c>
+      <c r="I40">
+        <v>3.80371190362324E-2</v>
+      </c>
+      <c r="J40">
+        <v>7.7</v>
+      </c>
+      <c r="K40">
+        <v>0.68250362374915596</v>
+      </c>
+      <c r="L40">
+        <v>94.410434908500093</v>
+      </c>
+      <c r="M40">
+        <v>2478.8011479404399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>38991</v>
+      </c>
+      <c r="B41">
+        <v>-0.105166589866698</v>
+      </c>
+      <c r="C41">
+        <v>2.29958960559892</v>
+      </c>
+      <c r="D41">
+        <v>0.3485369711871078</v>
+      </c>
+      <c r="E41">
+        <v>0.59487908588797822</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>4.5802644133392745E-2</v>
+      </c>
+      <c r="G41">
+        <v>-2.7173913043478199</v>
+      </c>
+      <c r="H41">
+        <v>-0.451845216966546</v>
+      </c>
+      <c r="I41">
+        <v>4.3048147101036903E-2</v>
+      </c>
+      <c r="J41">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K41">
+        <v>0.33522998279902</v>
+      </c>
+      <c r="L41">
+        <v>100.86587037070301</v>
+      </c>
+      <c r="M41">
+        <v>2339.81501662138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>39083</v>
+      </c>
+      <c r="B42">
+        <v>0.83640743867844902</v>
+      </c>
+      <c r="C42">
+        <v>2.2199341963424302</v>
+      </c>
+      <c r="D42">
+        <v>0.34229546157740209</v>
+      </c>
+      <c r="E42">
+        <v>0.59168627412045094</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.34254812672258395</v>
+      </c>
+      <c r="G42">
+        <v>2.7932960893854699</v>
+      </c>
+      <c r="H42">
+        <v>1.70404391302754</v>
+      </c>
+      <c r="I42">
+        <v>4.8364359144562601E-2</v>
+      </c>
+      <c r="J42">
+        <v>13.2</v>
+      </c>
+      <c r="K42">
+        <v>1.06702253502994</v>
+      </c>
+      <c r="L42">
+        <v>104.8486645601</v>
+      </c>
+      <c r="M42">
+        <v>2173.3943329598801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>39173</v>
+      </c>
+      <c r="B43">
+        <v>0.86556246144471005</v>
+      </c>
+      <c r="C43">
+        <v>2.0088655539885099</v>
+      </c>
+      <c r="D43">
+        <v>0.31378370916523846</v>
+      </c>
+      <c r="E43">
+        <v>0.57714050950574691</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.3968461355022801</v>
+      </c>
+      <c r="G43">
+        <v>2.7173913043478199</v>
+      </c>
+      <c r="H43">
+        <v>0.92701682409244701</v>
+      </c>
+      <c r="I43">
+        <v>5.27930350888366E-2</v>
+      </c>
+      <c r="J43">
+        <v>11.8</v>
+      </c>
+      <c r="K43">
+        <v>0.67467465313035202</v>
+      </c>
+      <c r="L43">
+        <v>105.851821593664</v>
+      </c>
+      <c r="M43">
+        <v>2012.0213828093599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>39264</v>
+      </c>
+      <c r="B44">
+        <v>1.11541844153542</v>
+      </c>
+      <c r="C44">
+        <v>2.40969967731513</v>
+      </c>
+      <c r="D44">
+        <v>0.31946380739711344</v>
+      </c>
+      <c r="E44">
+        <v>0.58000926182359969</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.35555473705511198</v>
+      </c>
+      <c r="G44">
+        <v>0.52910052910053196</v>
+      </c>
+      <c r="H44">
+        <v>2.7137061412328398</v>
+      </c>
+      <c r="I44">
+        <v>5.2214370850151799E-2</v>
+      </c>
+      <c r="J44">
+        <v>13.9</v>
+      </c>
+      <c r="K44">
+        <v>0.81408206409079698</v>
+      </c>
+      <c r="L44">
+        <v>98.597687793931797</v>
+      </c>
+      <c r="M44">
+        <v>1893.8538075102899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>39356</v>
+      </c>
+      <c r="B45">
+        <v>1.4173093411776101</v>
+      </c>
+      <c r="C45">
+        <v>2.3674080267654301</v>
+      </c>
+      <c r="D45">
+        <v>0.34601227119697153</v>
+      </c>
+      <c r="E45">
+        <v>0.59350131980451248</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.71013744952193947</v>
+      </c>
+      <c r="G45">
+        <v>1.84210526315791</v>
+      </c>
+      <c r="H45">
+        <v>2.4556534486566299</v>
+      </c>
+      <c r="I45">
+        <v>6.0417455567731398E-2</v>
+      </c>
+      <c r="J45">
+        <v>15.6</v>
+      </c>
+      <c r="K45">
+        <v>0.65043780608644397</v>
+      </c>
+      <c r="L45">
+        <v>106.83563579363999</v>
+      </c>
+      <c r="M45">
+        <v>1772.09063609849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>39448</v>
+      </c>
+      <c r="B46">
+        <v>0.86156412690807804</v>
+      </c>
+      <c r="C46">
+        <v>2.2490961752673102</v>
+      </c>
+      <c r="D46">
+        <v>0.43761937440982557</v>
+      </c>
+      <c r="E46">
+        <v>0.64017050658327079</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.72266813118905238</v>
+      </c>
+      <c r="G46">
+        <v>2.7131782945736198</v>
+      </c>
+      <c r="H46">
+        <v>0.54902731426370999</v>
+      </c>
+      <c r="I46">
+        <v>6.2638818777448105E-2</v>
+      </c>
+      <c r="J46">
+        <v>10.6</v>
+      </c>
+      <c r="K46">
+        <v>0.57419304105941604</v>
+      </c>
+      <c r="L46">
+        <v>102.74541020705</v>
+      </c>
+      <c r="M46">
+        <v>1637.2072991422001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B47">
+        <v>0.94497214233632498</v>
+      </c>
+      <c r="C47">
+        <v>3.3843666644470098</v>
+      </c>
+      <c r="D47">
+        <v>0.468481166006951</v>
+      </c>
+      <c r="E47">
+        <v>0.65584455355209847</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.7710323038241198</v>
+      </c>
+      <c r="G47">
+        <v>3.64779874213836</v>
+      </c>
+      <c r="H47">
+        <v>1.1023293156460801</v>
+      </c>
+      <c r="I47">
+        <v>6.2982606141492495E-2</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>0.64577301550403299</v>
+      </c>
+      <c r="L47">
+        <v>96.517075826642994</v>
+      </c>
+      <c r="M47">
+        <v>1537.61721643698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B48">
+        <v>0.81560529983910601</v>
+      </c>
+      <c r="C48">
+        <v>1.1130071208280199</v>
+      </c>
+      <c r="D48">
+        <v>0.5317135574763876</v>
+      </c>
+      <c r="E48">
+        <v>0.68802766494775458</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.6903989201681664</v>
+      </c>
+      <c r="G48">
+        <v>0.84951456310677997</v>
+      </c>
+      <c r="H48">
+        <v>0.444750234353392</v>
+      </c>
+      <c r="I48">
+        <v>6.4786335433054995E-2</v>
+      </c>
+      <c r="J48">
+        <v>9.9</v>
+      </c>
+      <c r="K48">
+        <v>0.50310734233988796</v>
+      </c>
+      <c r="L48">
+        <v>94.989551024902894</v>
+      </c>
+      <c r="M48">
+        <v>1476.22091554434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>39722</v>
+      </c>
+      <c r="B49">
+        <v>0.666452245739378</v>
+      </c>
+      <c r="C49">
+        <v>0.83019507314816099</v>
+      </c>
+      <c r="D49">
+        <v>0.53252660276355002</v>
+      </c>
+      <c r="E49">
+        <v>0.68826605726679535</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.47613618250875023</v>
+      </c>
+      <c r="G49">
+        <v>-1.6847172081829001</v>
+      </c>
+      <c r="H49">
+        <v>1.19488879942291</v>
+      </c>
+      <c r="I49">
+        <v>5.8682747800890903E-2</v>
+      </c>
+      <c r="J49">
+        <v>7.8</v>
+      </c>
+      <c r="K49">
+        <v>0.59868795079715598</v>
+      </c>
+      <c r="L49">
+        <v>85.040588757882901</v>
+      </c>
+      <c r="M49">
+        <v>1466.5933793847801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B50">
+        <v>1.51906807029882</v>
+      </c>
+      <c r="C50">
+        <v>1.8117117063538699</v>
+      </c>
+      <c r="D50">
+        <v>0.58523210261325342</v>
+      </c>
+      <c r="E50">
+        <v>0.71495292139380773</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.54890506514358162</v>
+      </c>
+      <c r="G50">
+        <v>3.9167686658506602</v>
+      </c>
+      <c r="H50">
+        <v>2.1439231179935998</v>
+      </c>
+      <c r="I50">
+        <v>4.8304160186164402E-2</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>0.66677986732469197</v>
+      </c>
+      <c r="L50">
+        <v>76.105833627608305</v>
+      </c>
+      <c r="M50">
+        <v>1550.6942083312599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B51">
+        <v>1.17124465424237</v>
+      </c>
+      <c r="C51">
+        <v>0.970542420557166</v>
+      </c>
+      <c r="D51">
+        <v>0.56430481707661073</v>
+      </c>
+      <c r="E51">
+        <v>0.70386315786512554</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.57461140152296752</v>
+      </c>
+      <c r="G51">
+        <v>2.4734982332155302</v>
+      </c>
+      <c r="H51">
+        <v>1.02963474496282</v>
+      </c>
+      <c r="I51">
+        <v>4.4450060440882101E-2</v>
+      </c>
+      <c r="J51">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K51">
+        <v>0.590331031443454</v>
+      </c>
+      <c r="L51">
+        <v>74.892592732082903</v>
+      </c>
+      <c r="M51">
+        <v>1689.7728600865901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B52">
+        <v>0.63571423548873396</v>
+      </c>
+      <c r="C52">
+        <v>1.65488442412473</v>
+      </c>
+      <c r="D52">
+        <v>0.56297843991568453</v>
+      </c>
+      <c r="E52">
+        <v>0.70261280417134309</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.46640624396593788</v>
+      </c>
+      <c r="G52">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="H52">
+        <v>-0.17202494960676501</v>
+      </c>
+      <c r="I52">
+        <v>4.2392360160934103E-2</v>
+      </c>
+      <c r="J52">
+        <v>5.3</v>
+      </c>
+      <c r="K52">
+        <v>0.70690130304996002</v>
+      </c>
+      <c r="L52">
+        <v>75.236475170276705</v>
+      </c>
+      <c r="M52">
+        <v>1789.21606843106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B53">
+        <v>0.48259081534207798</v>
+      </c>
+      <c r="C53">
+        <v>0.20080312021472899</v>
+      </c>
+      <c r="D53">
+        <v>0.60300804775579309</v>
+      </c>
+      <c r="E53">
+        <v>0.72224279704302674</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.4196278410794505</v>
+      </c>
+      <c r="G53">
+        <v>0.22831050228310801</v>
+      </c>
+      <c r="H53">
+        <v>0.50429651218479399</v>
+      </c>
+      <c r="I53">
+        <v>4.0503580945083599E-2</v>
+      </c>
+      <c r="J53">
+        <v>7.3</v>
+      </c>
+      <c r="K53">
+        <v>0.81342938214544303</v>
+      </c>
+      <c r="L53">
+        <v>75.480957186351901</v>
+      </c>
+      <c r="M53">
+        <v>1872.77828167696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B54">
+        <v>0.46429976373633502</v>
+      </c>
+      <c r="C54">
+        <v>1.08423766477616</v>
+      </c>
+      <c r="D54">
+        <v>0.56352899700120584</v>
+      </c>
+      <c r="E54">
+        <v>0.70079818245560865</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.10323026458912588</v>
+      </c>
+      <c r="G54">
+        <v>3.0751708428245998</v>
+      </c>
+      <c r="H54">
+        <v>-6.1274815422564202E-2</v>
+      </c>
+      <c r="I54">
+        <v>4.4534406004258301E-2</v>
+      </c>
+      <c r="J54">
+        <v>7.1</v>
+      </c>
+      <c r="K54">
+        <v>0.79992497011728803</v>
+      </c>
+      <c r="L54">
+        <v>85.426733888795496</v>
+      </c>
+      <c r="M54">
+        <v>1913.69469315521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B55">
+        <v>0.73558481611402704</v>
+      </c>
+      <c r="C55">
+        <v>0.97674134476987695</v>
+      </c>
+      <c r="D55">
+        <v>0.57030528058730212</v>
+      </c>
+      <c r="E55">
+        <v>0.70241531848076466</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.5242590593682825E-2</v>
+      </c>
+      <c r="G55">
+        <v>1.65745856353592</v>
+      </c>
+      <c r="H55">
+        <v>1.69925744616172</v>
+      </c>
+      <c r="I55">
+        <v>4.37557289414547E-2</v>
+      </c>
+      <c r="J55">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K55">
+        <v>0.73376165873615595</v>
+      </c>
+      <c r="L55">
+        <v>83.597051163540996</v>
+      </c>
+      <c r="M55">
+        <v>1913.36253795936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B56">
+        <v>0.77070054393739396</v>
+      </c>
+      <c r="C56">
+        <v>0.77508776207757502</v>
+      </c>
+      <c r="D56">
+        <v>0.69732907726578475</v>
+      </c>
+      <c r="E56">
+        <v>0.76471677022547091</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>5.0315544866774031E-2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1.99839710086624</v>
+      </c>
+      <c r="I56">
+        <v>4.4626498560011697E-2</v>
+      </c>
+      <c r="J56">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.76039146988746598</v>
+      </c>
+      <c r="L56">
+        <v>84.849054173414601</v>
+      </c>
+      <c r="M56">
+        <v>1915.1973338387299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B57">
+        <v>0.82464682017642499</v>
+      </c>
+      <c r="C57">
+        <v>2.2073437768088402</v>
+      </c>
+      <c r="D57">
+        <v>0.69153784687505659</v>
+      </c>
+      <c r="E57">
+        <v>0.75771642788367011</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>9.5799938235252124E-2</v>
+      </c>
+      <c r="G57">
+        <v>2.9347826086956501</v>
+      </c>
+      <c r="H57">
+        <v>0.27485307762005101</v>
+      </c>
+      <c r="I57">
+        <v>4.5273822697780498E-2</v>
+      </c>
+      <c r="J57">
+        <v>12.1</v>
+      </c>
+      <c r="K57">
+        <v>0.77237249658648399</v>
+      </c>
+      <c r="L57">
+        <v>86.932995298375303</v>
+      </c>
+      <c r="M57">
+        <v>1934.6218133842401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B58">
+        <v>1.56919519771452</v>
+      </c>
+      <c r="C58">
+        <v>1.09060072144974</v>
+      </c>
+      <c r="D58">
+        <v>0.80522239676774632</v>
+      </c>
+      <c r="E58">
+        <v>0.8100728702897797</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.41150284748438559</v>
+      </c>
+      <c r="G58">
+        <v>3.8014783526927101</v>
+      </c>
+      <c r="H58">
+        <v>3.0420804683240101</v>
+      </c>
+      <c r="I58">
+        <v>2.9693755116798001E-2</v>
+      </c>
+      <c r="J58">
+        <v>9.9</v>
+      </c>
+      <c r="K58">
+        <v>0.870256864022252</v>
+      </c>
+      <c r="L58">
+        <v>58.494880400534598</v>
+      </c>
+      <c r="M58">
+        <v>1961.18591196376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B59">
+        <v>0.46877060958192301</v>
+      </c>
+      <c r="C59">
+        <v>1.13709068295892</v>
+      </c>
+      <c r="D59">
+        <v>0.7873688923549782</v>
+      </c>
+      <c r="E59">
+        <v>0.7921042022952518</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.33802301226526332</v>
+      </c>
+      <c r="G59">
+        <v>0.91556459816888403</v>
+      </c>
+      <c r="H59">
+        <v>-1.6526738028645099E-2</v>
+      </c>
+      <c r="I59">
+        <v>3.2929839806695803E-2</v>
+      </c>
+      <c r="J59">
+        <v>12.7</v>
+      </c>
+      <c r="K59">
+        <v>0.81639008111508804</v>
+      </c>
+      <c r="L59">
+        <v>64.726650513759196</v>
+      </c>
+      <c r="M59">
+        <v>1966.8084679880401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B60">
+        <v>0.57409608895653697</v>
+      </c>
+      <c r="C60">
+        <v>1.4066290122867</v>
+      </c>
+      <c r="D60">
+        <v>0.7022866766683844</v>
+      </c>
+      <c r="E60">
+        <v>0.7354128914741187</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.16184810184156651</v>
+      </c>
+      <c r="G60">
+        <v>1.31048387096774</v>
+      </c>
+      <c r="H60">
+        <v>-0.55713706505757399</v>
+      </c>
+      <c r="I60">
+        <v>3.20141789151119E-2</v>
+      </c>
+      <c r="J60">
+        <v>9.1</v>
+      </c>
+      <c r="K60">
+        <v>0.83587019056297096</v>
+      </c>
+      <c r="L60">
+        <v>62.583760605571797</v>
+      </c>
+      <c r="M60">
+        <v>1966.33085933896</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B61">
+        <v>1.8690382395991201</v>
+      </c>
+      <c r="C61">
+        <v>1.01126708825705</v>
+      </c>
+      <c r="D61">
+        <v>0.79966619257860749</v>
+      </c>
+      <c r="E61">
+        <v>0.77280088910438582</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.42873718708796837</v>
+      </c>
+      <c r="G61">
+        <v>3.681592039801</v>
+      </c>
+      <c r="H61">
+        <v>2.13189484340894</v>
+      </c>
+      <c r="I61">
+        <v>3.0772053637750402E-2</v>
+      </c>
+      <c r="J61">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K61">
+        <v>0.78539837209254404</v>
+      </c>
+      <c r="L61">
+        <v>60.419310893680901</v>
+      </c>
+      <c r="M61">
+        <v>1975.4078607573199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B62">
+        <v>1.0369976279202699</v>
+      </c>
+      <c r="C62">
+        <v>5.1140454566805701E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.78838328000567781</v>
+      </c>
+      <c r="E62">
+        <v>0.76676047924364443</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.18200324474671614</v>
+      </c>
+      <c r="G62">
+        <v>3.2629558541266799</v>
+      </c>
+      <c r="H62">
+        <v>1.82244076160202</v>
+      </c>
+      <c r="I62">
+        <v>3.1608180064697303E-2</v>
+      </c>
+      <c r="J62">
+        <v>8.1</v>
+      </c>
+      <c r="K62">
+        <v>0.74618549486702002</v>
+      </c>
+      <c r="L62">
+        <v>62.826221826414198</v>
+      </c>
+      <c r="M62">
+        <v>2000.39444033833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B63">
+        <v>0.724316408758227</v>
+      </c>
+      <c r="C63">
+        <v>1.42746321239822</v>
+      </c>
+      <c r="D63">
+        <v>0.78908133887225507</v>
+      </c>
+      <c r="E63">
+        <v>0.77501144650402587</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.26374319895356035</v>
+      </c>
+      <c r="G63">
+        <v>0.92936802973977695</v>
+      </c>
+      <c r="H63">
+        <v>1.7661086929021601</v>
+      </c>
+      <c r="I63">
+        <v>3.1554136448762697E-2</v>
+      </c>
+      <c r="J63">
+        <v>6.9</v>
+      </c>
+      <c r="K63">
+        <v>0.60187349729572703</v>
+      </c>
+      <c r="L63">
+        <v>63.734951846298102</v>
+      </c>
+      <c r="M63">
+        <v>2022.4534138946001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B64">
+        <v>0.12768589226590099</v>
+      </c>
+      <c r="C64">
+        <v>0.39155614216157603</v>
+      </c>
+      <c r="D64">
+        <v>0.7187458665986135</v>
+      </c>
+      <c r="E64">
+        <v>0.72298246749877837</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.23722286546749505</v>
+      </c>
+      <c r="G64">
+        <v>0.36832412523020203</v>
+      </c>
+      <c r="H64">
+        <v>-0.58617094628254995</v>
+      </c>
+      <c r="I64">
+        <v>3.3053834539931402E-2</v>
+      </c>
+      <c r="J64">
+        <v>7.7</v>
+      </c>
+      <c r="K64">
+        <v>0.68344606727757196</v>
+      </c>
+      <c r="L64">
+        <v>68.100077146995105</v>
+      </c>
+      <c r="M64">
+        <v>2061.9567418369302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B65">
+        <v>0.21242691885075199</v>
+      </c>
+      <c r="C65">
+        <v>0.779139013636864</v>
+      </c>
+      <c r="D65">
+        <v>0.76455315355556941</v>
+      </c>
+      <c r="E65">
+        <v>0.73065399885128279</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>-0.27430948062981997</v>
+      </c>
+      <c r="G65">
+        <v>-1.0091743119265899</v>
+      </c>
+      <c r="H65">
+        <v>0.74432370166179795</v>
+      </c>
+      <c r="I65">
+        <v>3.2150055059049103E-2</v>
+      </c>
+      <c r="J65">
+        <v>5.6</v>
+      </c>
+      <c r="K65">
+        <v>0.68151875269033702</v>
+      </c>
+      <c r="L65">
+        <v>67.739874710677398</v>
+      </c>
+      <c r="M65">
+        <v>2111.5776902709399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B66">
+        <v>2.7497197291523898E-3</v>
+      </c>
+      <c r="C66">
+        <v>1.4333787611831901</v>
+      </c>
+      <c r="D66">
+        <v>0.61950304798874534</v>
+      </c>
+      <c r="E66">
+        <v>0.6513606001136818</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>-0.52158854510466979</v>
+      </c>
+      <c r="G66">
+        <v>-0.46339202965710002</v>
+      </c>
+      <c r="H66">
+        <v>-0.281195431703196</v>
+      </c>
+      <c r="I66">
+        <v>3.4408870839042899E-2</v>
+      </c>
+      <c r="J66">
+        <v>6.2</v>
+      </c>
+      <c r="K66">
+        <v>0.63014462044948505</v>
+      </c>
+      <c r="L66">
+        <v>74.111417296218093</v>
+      </c>
+      <c r="M66">
+        <v>2161.0141908103901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B67">
+        <v>-1.39500790962046E-2</v>
+      </c>
+      <c r="C67">
+        <v>0.41126144165109202</v>
+      </c>
+      <c r="D67">
+        <v>0.53769431457177941</v>
+      </c>
+      <c r="E67">
+        <v>0.64056639131335746</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>-0.70685322593485489</v>
+      </c>
+      <c r="G67">
+        <v>-1.5828677839851</v>
+      </c>
+      <c r="H67">
+        <v>0.70477960380716798</v>
+      </c>
+      <c r="I67">
+        <v>3.2548418389424703E-2</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>0.65547013202350901</v>
+      </c>
+      <c r="L67">
+        <v>71.100019349303906</v>
+      </c>
+      <c r="M67">
+        <v>2187.2849716646201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B68">
+        <v>0.64638594185073805</v>
+      </c>
+      <c r="C68">
+        <v>1.15364124070734</v>
+      </c>
+      <c r="D68">
+        <v>0.44766274198038136</v>
+      </c>
+      <c r="E68">
+        <v>0.56669639706223851</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>-0.50684274126500406</v>
+      </c>
+      <c r="G68">
+        <v>1.1352885525070999</v>
+      </c>
+      <c r="H68">
+        <v>1.1359577024464</v>
+      </c>
+      <c r="I68">
+        <v>3.2406287957631001E-2</v>
+      </c>
+      <c r="J68">
+        <v>6.4</v>
+      </c>
+      <c r="K68">
+        <v>0.68874906749310505</v>
+      </c>
+      <c r="L68">
+        <v>70.622944199309501</v>
+      </c>
+      <c r="M68">
+        <v>2177.5306876037798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B69">
+        <v>-6.12029208284781E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.80080747907302896</v>
+      </c>
+      <c r="D69">
+        <v>0.47999704725478765</v>
+      </c>
+      <c r="E69">
+        <v>0.63741623589166352</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>-0.62105748814176742</v>
+      </c>
+      <c r="G69">
+        <v>-0.84190832553788597</v>
+      </c>
+      <c r="H69">
+        <v>-0.18826368380835801</v>
+      </c>
+      <c r="I69">
+        <v>3.5043573954499002E-2</v>
+      </c>
+      <c r="J69">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K69">
+        <v>0.60290087674633197</v>
+      </c>
+      <c r="L69">
+        <v>75.644953524758193</v>
+      </c>
+      <c r="M69">
+        <v>2149.01314795287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B70">
+        <v>2.7839581020529601E-2</v>
+      </c>
+      <c r="C70">
+        <v>1.1359680322547501</v>
+      </c>
+      <c r="D70">
+        <v>0.37124543212447847</v>
+      </c>
+      <c r="E70">
+        <v>0.5958151663829403</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>-0.46973491725209909</v>
+      </c>
+      <c r="G70">
+        <v>-0.188679245283012</v>
+      </c>
+      <c r="H70">
+        <v>-0.46835577593276401</v>
+      </c>
+      <c r="I70">
+        <v>4.2903661200808803E-2</v>
+      </c>
+      <c r="J70">
+        <v>7.9</v>
+      </c>
+      <c r="K70">
+        <v>0.609770855448317</v>
+      </c>
+      <c r="L70">
+        <v>89.255922249616106</v>
+      </c>
+      <c r="M70">
+        <v>2099.72539648474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B71">
+        <v>-0.30964459764774599</v>
+      </c>
+      <c r="C71">
+        <v>0.80256762072721699</v>
+      </c>
+      <c r="D71">
+        <v>0.28259755777479967</v>
+      </c>
+      <c r="E71">
+        <v>0.5198200225481564</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>-0.46184981347301851</v>
+      </c>
+      <c r="G71">
+        <v>-0.56710775047258699</v>
+      </c>
+      <c r="H71">
+        <v>-1.2597786953032499</v>
+      </c>
+      <c r="I71">
+        <v>4.2694451596440801E-2</v>
+      </c>
+      <c r="J71">
+        <v>6.9</v>
+      </c>
+      <c r="K71">
+        <v>0.67798257531441597</v>
+      </c>
+      <c r="L71">
+        <v>85.386504888809995</v>
+      </c>
+      <c r="M71">
+        <v>2001.6348445302499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B72">
+        <v>2.0027858053154501E-2</v>
+      </c>
+      <c r="C72">
+        <v>0.79198321653370796</v>
+      </c>
+      <c r="D72">
+        <v>0.22709431659966306</v>
+      </c>
+      <c r="E72">
+        <v>0.45790377444792085</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>-0.52840776183101634</v>
+      </c>
+      <c r="G72">
+        <v>0.19011406844107601</v>
+      </c>
+      <c r="H72">
+        <v>-0.21094363288854301</v>
+      </c>
+      <c r="I72">
+        <v>4.9025774775634398E-2</v>
+      </c>
+      <c r="J72">
+        <v>7.8</v>
+      </c>
+      <c r="K72">
+        <v>0.60344404567092602</v>
+      </c>
+      <c r="L72">
+        <v>94.689427820698</v>
+      </c>
+      <c r="M72">
+        <v>1923.10387497996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B73">
+        <v>-0.45252166841150598</v>
+      </c>
+      <c r="C73">
+        <v>0.93932796118106399</v>
+      </c>
+      <c r="D73">
+        <v>0.13106708908801057</v>
+      </c>
+      <c r="E73">
+        <v>0.47466662638651069</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>-0.65857175400117962</v>
+      </c>
+      <c r="G73">
+        <v>-2.9411764705882399</v>
+      </c>
+      <c r="H73">
+        <v>-1.0958280967816501</v>
+      </c>
+      <c r="I73">
+        <v>5.16544455122213E-2</v>
+      </c>
+      <c r="J73">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K73">
+        <v>0.65100949614604497</v>
+      </c>
+      <c r="L73">
+        <v>95.065267083474197</v>
+      </c>
+      <c r="M73">
+        <v>1848.3362027371099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B74">
+        <v>-0.380691124857506</v>
+      </c>
+      <c r="C74">
+        <v>0.99010879331302704</v>
+      </c>
+      <c r="D74">
+        <v>8.5613163382758373E-2</v>
+      </c>
+      <c r="E74">
+        <v>0.44590489604925398</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>-0.6519528153403793</v>
+      </c>
+      <c r="G74">
+        <v>-1.9550342130987199</v>
+      </c>
+      <c r="H74">
+        <v>-0.83928839478744499</v>
+      </c>
+      <c r="I74">
+        <v>5.17369171652712E-2</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>0.70567993997067902</v>
+      </c>
+      <c r="L74">
+        <v>91.593708598130902</v>
+      </c>
+      <c r="M74">
+        <v>1764.78043518456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B75">
+        <v>0.31260982593390402</v>
+      </c>
+      <c r="C75">
+        <v>0.28677190662915503</v>
+      </c>
+      <c r="D75">
+        <v>5.3532656649690757E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.4068920106522711</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>-0.40774133509528804</v>
+      </c>
+      <c r="G75">
+        <v>1.29611166500498</v>
+      </c>
+      <c r="H75">
+        <v>0.53409141098906299</v>
+      </c>
+      <c r="I75">
+        <v>6.2820751584718906E-2</v>
+      </c>
+      <c r="J75">
+        <v>6.2</v>
+      </c>
+      <c r="K75">
+        <v>0.61114435173541803</v>
+      </c>
+      <c r="L75">
+        <v>107.280326815306</v>
+      </c>
+      <c r="M75">
+        <v>1710.8429992276699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B76">
+        <v>-7.5596519606435195E-2</v>
+      </c>
+      <c r="C76">
+        <v>1.2419942770435</v>
+      </c>
+      <c r="D76">
+        <v>2.2430961262687177E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.39747230036895065</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>-0.37614418833504887</v>
+      </c>
+      <c r="G76">
+        <v>-2.4606299212598302</v>
+      </c>
+      <c r="H76">
+        <v>1.09701281380687</v>
+      </c>
+      <c r="I76">
+        <v>6.9284754102926296E-2</v>
+      </c>
+      <c r="J76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K76">
+        <v>0.62206914198701202</v>
+      </c>
+      <c r="L76">
+        <v>112.780815814663</v>
+      </c>
+      <c r="M76">
+        <v>1638.4008286731901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B77">
+        <v>-0.28195571226163402</v>
+      </c>
+      <c r="C77">
+        <v>0.73115239302030899</v>
+      </c>
+      <c r="D77">
+        <v>3.8552596498098168E-3</v>
+      </c>
+      <c r="E77">
+        <v>0.42578009875062772</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>-0.23747547178592837</v>
+      </c>
+      <c r="G77">
+        <v>-1.3118062563067501</v>
+      </c>
+      <c r="H77">
+        <v>-0.87880887785244899</v>
+      </c>
+      <c r="I77">
+        <v>7.3608523505343595E-2</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>0.57287348012853501</v>
+      </c>
+      <c r="L77">
+        <v>115.559265291274</v>
+      </c>
+      <c r="M77">
+        <v>1578.4919290119999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B78">
+        <v>-0.33821226650140002</v>
+      </c>
+      <c r="C78">
+        <v>0.468078248734144</v>
+      </c>
+      <c r="D78">
+        <v>-8.7525487989958961E-3</v>
+      </c>
+      <c r="E78">
+        <v>0.38978050519378193</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>-0.18140183149164968</v>
+      </c>
+      <c r="G78">
+        <v>-3.1697341513292301</v>
+      </c>
+      <c r="H78">
+        <v>0.51943703253736795</v>
+      </c>
+      <c r="I78">
+        <v>7.63307097430342E-2</v>
+      </c>
+      <c r="J78">
+        <v>4.5</v>
+      </c>
+      <c r="K78">
+        <v>0.61291521983257202</v>
+      </c>
+      <c r="L78">
+        <v>116.431800433484</v>
+      </c>
+      <c r="M78">
+        <v>1539.3405363599099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B79">
+        <v>0.31085530520556398</v>
+      </c>
+      <c r="C79">
+        <v>1.27091203765954</v>
+      </c>
+      <c r="D79">
+        <v>-1.985210837033291E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.38622481565984135</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>-0.14975995494066707</v>
+      </c>
+      <c r="G79">
+        <v>1.9007391763463399</v>
+      </c>
+      <c r="H79">
+        <v>0.70548724202264101</v>
+      </c>
+      <c r="I79">
+        <v>8.6815878429779197E-2</v>
+      </c>
+      <c r="J79">
+        <v>5.7</v>
+      </c>
+      <c r="K79">
+        <v>0.71566362865816302</v>
+      </c>
+      <c r="L79">
+        <v>127.06398774119</v>
+      </c>
+      <c r="M79">
+        <v>1466.4786777883701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B80">
+        <v>0.13890438756696699</v>
+      </c>
+      <c r="C80">
+        <v>1.0000327478086599</v>
+      </c>
+      <c r="D80">
+        <v>-2.5901552101970093E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.43988940883372685</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>-6.5033032760312956E-2</v>
+      </c>
+      <c r="G80">
+        <v>0.41450777202072597</v>
+      </c>
+      <c r="H80">
+        <v>-0.198469886231805</v>
+      </c>
+      <c r="I80">
+        <v>9.1494412354933705E-2</v>
+      </c>
+      <c r="J80">
+        <v>6.3</v>
+      </c>
+      <c r="K80">
+        <v>0.58048471726337403</v>
+      </c>
+      <c r="L80">
+        <v>127.487823656191</v>
+      </c>
+      <c r="M80">
+        <v>1404.0321191555499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B81">
+        <v>0.77785114905744002</v>
+      </c>
+      <c r="C81">
+        <v>0.72212641845325698</v>
+      </c>
+      <c r="D81">
+        <v>-4.5221453978805393E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.51174899064370116</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>0.21849438418233291</v>
+      </c>
+      <c r="G81">
+        <v>2.3735810113519</v>
+      </c>
+      <c r="H81">
+        <v>1.2575317543682001</v>
+      </c>
+      <c r="I81">
+        <v>9.5510000739751494E-2</v>
+      </c>
+      <c r="J81">
+        <v>5.4</v>
+      </c>
+      <c r="K81">
+        <v>0.72014109862369902</v>
+      </c>
+      <c r="L81">
+        <v>128.679979999122</v>
+      </c>
+      <c r="M81">
+        <v>1351.8076006234501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B82">
+        <v>0.51435580194956199</v>
+      </c>
+      <c r="C82">
+        <v>1.7635352122680601</v>
+      </c>
+      <c r="D82">
+        <v>-4.0162643316377089E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.50847558525211056</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>0.44424420974387913</v>
+      </c>
+      <c r="G82">
+        <v>0.20161290322579301</v>
+      </c>
+      <c r="H82">
+        <v>1.0263691008386999</v>
+      </c>
+      <c r="I82">
+        <v>0.108605391588858</v>
+      </c>
+      <c r="J82">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K82">
+        <v>0.67245225353367699</v>
+      </c>
+      <c r="L82">
+        <v>139.257056097164</v>
+      </c>
+      <c r="M82">
+        <v>1274.6486411751901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B83">
+        <v>-0.130808084322282</v>
+      </c>
+      <c r="C83">
+        <v>1.6849321204599701</v>
+      </c>
+      <c r="D83">
+        <v>-2.3108380357261815E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.51464637251277257</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>0.34492792193325461</v>
+      </c>
+      <c r="G83">
+        <v>-2.2132796780684099</v>
+      </c>
+      <c r="H83">
+        <v>0.98993140933423196</v>
+      </c>
+      <c r="I83">
+        <v>0.113420789813085</v>
+      </c>
+      <c r="J83">
+        <v>6.4</v>
+      </c>
+      <c r="K83">
+        <v>0.62627276291382805</v>
+      </c>
+      <c r="L83">
+        <v>137.13575736368401</v>
+      </c>
+      <c r="M83">
+        <v>1211.72716719347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B84">
+        <v>0.44928056752988199</v>
+      </c>
+      <c r="C84">
+        <v>1.1319179598651199</v>
+      </c>
+      <c r="D84">
+        <v>-1.5956064625832767E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.54311446268509034</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>0.42857141065562054</v>
+      </c>
+      <c r="G84">
+        <v>1.95473251028805</v>
+      </c>
+      <c r="H84">
+        <v>0.98685320283689704</v>
+      </c>
+      <c r="I84">
+        <v>0.122358820900368</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>0.77800486869242003</v>
+      </c>
+      <c r="L84">
+        <v>142.702352525327</v>
+      </c>
+      <c r="M84">
+        <v>1172.5810480851101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B85">
+        <v>0.86378918171983698</v>
+      </c>
+      <c r="C85">
+        <v>1.9829010396834801</v>
+      </c>
+      <c r="D85">
+        <v>8.7205526398292932E-3</v>
+      </c>
+      <c r="E85">
+        <v>0.51200005583791341</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>0.46937582069805517</v>
+      </c>
+      <c r="G85">
+        <v>1.61453077699293</v>
+      </c>
+      <c r="H85">
+        <v>1.7182617780361</v>
+      </c>
+      <c r="I85">
+        <v>0.136288329477568</v>
+      </c>
+      <c r="J85">
+        <v>6.4</v>
+      </c>
+      <c r="K85">
+        <v>0.81168040795422702</v>
+      </c>
+      <c r="L85">
+        <v>149.42094306933899</v>
+      </c>
+      <c r="M85">
+        <v>1097.89371101197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B86">
+        <v>-0.44892426954817199</v>
+      </c>
+      <c r="C86">
+        <v>1.8491679910227901</v>
+      </c>
+      <c r="D86">
+        <v>3.8805230473015762E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.51949600824814368</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>0.22349699216119337</v>
+      </c>
+      <c r="G86">
+        <v>-0.79443892750744205</v>
+      </c>
+      <c r="H86">
+        <v>-0.79107579177141896</v>
+      </c>
+      <c r="I86">
+        <v>0.129687825215864</v>
+      </c>
+      <c r="J86">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="K86">
+        <v>0.82265513514181499</v>
+      </c>
+      <c r="L86">
+        <v>136.601070721784</v>
+      </c>
+      <c r="M86">
+        <v>1046.1872519185999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B87">
+        <v>0.48791019959419601</v>
+      </c>
+      <c r="C87">
+        <v>1.7229173355610199</v>
+      </c>
+      <c r="D87">
+        <v>6.1361553521899204E-2</v>
+      </c>
+      <c r="E87">
+        <v>0.53104070204148535</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>0.36112230018119756</v>
+      </c>
+      <c r="G87">
+        <v>3.2032032032031998</v>
+      </c>
+      <c r="H87">
+        <v>0.13799537562897499</v>
+      </c>
+      <c r="I87">
+        <v>0.13323047037807001</v>
+      </c>
+      <c r="J87">
+        <v>7.1333333333333329</v>
+      </c>
+      <c r="K87">
+        <v>0.66918257643932499</v>
+      </c>
+      <c r="L87">
+        <v>134.47562760763699</v>
+      </c>
+      <c r="M87">
+        <v>1010.83120731925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B88">
+        <v>0.56793882419989905</v>
+      </c>
+      <c r="C88">
+        <v>1.57328270993187</v>
+      </c>
+      <c r="D88">
+        <v>0.10955673318318038</v>
+      </c>
+      <c r="E88">
+        <v>0.52486225016550314</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>0.38363454861727275</v>
+      </c>
+      <c r="G88">
+        <v>0.87293889427739602</v>
+      </c>
+      <c r="H88">
+        <v>0.96767102865740595</v>
+      </c>
+      <c r="I88">
+        <v>0.12529547880916</v>
+      </c>
+      <c r="J88">
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="K88">
+        <v>0.83427257518708497</v>
+      </c>
+      <c r="L88">
+        <v>122.941208900878</v>
+      </c>
+      <c r="M88">
+        <v>984.23905207176904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B89">
+        <v>0.34625074796970501</v>
+      </c>
+      <c r="C89">
+        <v>2.0237596300005598</v>
+      </c>
+      <c r="D89">
+        <v>0.15021334670892728</v>
+      </c>
+      <c r="E89">
+        <v>0.53442066740085892</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="0"/>
+        <v>0.22957332291407773</v>
+      </c>
+      <c r="G89">
+        <v>-9.6153846153839595E-2</v>
+      </c>
+      <c r="H89">
+        <v>0.68477984707018802</v>
+      </c>
+      <c r="I89">
+        <v>0.12773263387484199</v>
+      </c>
+      <c r="J89">
+        <v>6.3666666666666671</v>
+      </c>
+      <c r="K89">
+        <v>0.94833943584538305</v>
+      </c>
+      <c r="L89">
+        <v>124.296456534962</v>
+      </c>
+      <c r="M89">
+        <v>977.59738730137701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B90">
+        <v>0.188370780660335</v>
+      </c>
+      <c r="C90">
+        <v>1.50882422361145</v>
+      </c>
+      <c r="D90">
+        <v>0.18243234158885624</v>
+      </c>
+      <c r="E90">
+        <v>0.55462476246164183</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="0"/>
+        <v>0.35881240763301797</v>
+      </c>
+      <c r="G90">
+        <v>-2.0211742059672799</v>
+      </c>
+      <c r="H90">
+        <v>0.81016889262942005</v>
+      </c>
+      <c r="I90">
+        <v>0.12787101850298199</v>
+      </c>
+      <c r="J90">
+        <v>8</v>
+      </c>
+      <c r="K90">
+        <v>0.87183394173879902</v>
+      </c>
+      <c r="L90">
+        <v>122.212767279611</v>
+      </c>
+      <c r="M90">
+        <v>949.855901416949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B91">
+        <v>1.1792313796956999</v>
+      </c>
+      <c r="C91">
+        <v>2.34160142606079</v>
+      </c>
+      <c r="D91">
+        <v>0.21963957751034435</v>
+      </c>
+      <c r="E91">
+        <v>0.56340930261911115</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="0"/>
+        <v>0.50908637960951053</v>
+      </c>
+      <c r="G91">
+        <v>2.0628683693516701</v>
+      </c>
+      <c r="H91">
+        <v>3.06470325130763</v>
+      </c>
+      <c r="I91">
+        <v>0.123031351241478</v>
+      </c>
+      <c r="J91">
+        <v>6.8666666666666671</v>
+      </c>
+      <c r="K91">
+        <v>0.69019860602359895</v>
+      </c>
+      <c r="L91">
+        <v>111.76150174674299</v>
+      </c>
+      <c r="M91">
+        <v>904.129256259709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B92">
+        <v>0.70989486704817695</v>
+      </c>
+      <c r="C92">
+        <v>1.18527726429442</v>
+      </c>
+      <c r="D92">
+        <v>0.29734187801466749</v>
+      </c>
+      <c r="E92">
+        <v>0.65422035549400626</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="0"/>
+        <v>0.4963802106602988</v>
+      </c>
+      <c r="G92">
+        <v>-1.5399422521655399</v>
+      </c>
+      <c r="H92">
+        <v>1.82003560462347</v>
+      </c>
+      <c r="I92">
+        <v>0.12497370101184201</v>
+      </c>
+      <c r="J92">
+        <v>7</v>
+      </c>
+      <c r="K92">
+        <v>0.81922162685516697</v>
+      </c>
+      <c r="L92">
+        <v>109.85745678885201</v>
+      </c>
+      <c r="M92">
+        <v>882.51451053681899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B93">
+        <v>0.98501780822135698</v>
+      </c>
+      <c r="C93">
+        <v>1.6882910697773601</v>
+      </c>
+      <c r="D93">
+        <v>0.2929545002609002</v>
+      </c>
+      <c r="E93">
+        <v>0.60807921612420213</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="0"/>
+        <v>0.61541536219746495</v>
+      </c>
+      <c r="G93">
+        <v>0.87976539589442304</v>
+      </c>
+      <c r="H93">
+        <v>0.89250692161554901</v>
+      </c>
+      <c r="I93">
+        <v>0.12257939612888701</v>
+      </c>
+      <c r="J93">
+        <v>6.7</v>
+      </c>
+      <c r="K93">
+        <v>0.852110914987662</v>
+      </c>
+      <c r="L93">
+        <v>107.00887278702599</v>
+      </c>
+      <c r="M93">
+        <v>870.42119887651597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B94">
+        <v>0.866790505168751</v>
+      </c>
+      <c r="C94">
+        <v>0.80112064173508202</v>
+      </c>
+      <c r="D94">
+        <v>0.37230111657240439</v>
+      </c>
+      <c r="E94">
+        <v>0.55028846376941054</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="0"/>
+        <v>0.75280129844463994</v>
+      </c>
+      <c r="G94">
+        <v>0.58139534883720501</v>
+      </c>
+      <c r="H94">
+        <v>1.58664032573605</v>
+      </c>
+      <c r="I94">
+        <v>0.113362750286688</v>
+      </c>
+      <c r="J94">
+        <v>8.5666666666666682</v>
+      </c>
+      <c r="K94">
+        <v>0.691176890388291</v>
+      </c>
+      <c r="L94">
+        <v>99.627370038528696</v>
+      </c>
+      <c r="M94">
+        <v>894.62051089138004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B95">
+        <v>1.1682123296610101</v>
+      </c>
+      <c r="C95">
+        <v>0.36877662919387399</v>
+      </c>
+      <c r="D95">
+        <v>0.65567039114216019</v>
+      </c>
+      <c r="E95">
+        <v>0.7302059013767126</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="0"/>
+        <v>0.71283930001447948</v>
+      </c>
+      <c r="G95">
+        <v>-4.1425818882466201</v>
+      </c>
+      <c r="H95">
+        <v>1.13641168340447</v>
+      </c>
+      <c r="I95">
+        <v>7.4081610229359801E-2</v>
+      </c>
+      <c r="J95">
+        <v>10.166666666666666</v>
+      </c>
+      <c r="K95">
+        <v>-0.53202032883636696</v>
+      </c>
+      <c r="L95">
+        <v>74.124322901689197</v>
+      </c>
+      <c r="M95">
+        <v>993.18358704662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B96">
+        <v>0.740823824064335</v>
+      </c>
+      <c r="C96">
+        <v>2.3434235249837299</v>
+      </c>
+      <c r="D96">
+        <v>0.55492170161872689</v>
+      </c>
+      <c r="E96">
+        <v>0.67020645512823052</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="0"/>
+        <v>0.64286923876419566</v>
+      </c>
+      <c r="G96">
+        <v>2.3115577889447199</v>
+      </c>
+      <c r="H96">
+        <v>-1.2729759002149099</v>
+      </c>
+      <c r="I96">
+        <v>9.76023811999049E-2</v>
+      </c>
+      <c r="J96">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="K96">
+        <v>1.3788019730332099</v>
+      </c>
+      <c r="L96">
+        <v>101.606882327638</v>
+      </c>
+      <c r="M96">
+        <v>1043.85555782749</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B97">
+        <v>0.66239082453560605</v>
+      </c>
+      <c r="C97">
+        <v>2.2539829070560899</v>
+      </c>
+      <c r="D97">
+        <v>0.57923750186701373</v>
+      </c>
+      <c r="E97">
+        <v>0.67945406268663522</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="0"/>
+        <v>0.56659987059652539</v>
+      </c>
+      <c r="G97">
+        <v>1.0805500982318199</v>
+      </c>
+      <c r="H97">
+        <v>-0.88942888205353599</v>
+      </c>
+      <c r="I97">
+        <v>9.47672185331251E-2</v>
+      </c>
+      <c r="J97">
+        <v>6.3</v>
+      </c>
+      <c r="K97">
+        <v>0.46522871398504101</v>
+      </c>
+      <c r="L97">
+        <v>99.738219732269002</v>
+      </c>
+      <c r="M97">
+        <v>1059.85796354479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B98">
+        <v>1.6711591335975799</v>
+      </c>
+      <c r="C98">
+        <v>2.09239856579606</v>
+      </c>
+      <c r="D98">
+        <v>0.68400838756148552</v>
+      </c>
+      <c r="E98">
+        <v>0.73240084884902412</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="0"/>
+        <v>0.68834541139222827</v>
+      </c>
+      <c r="G98">
+        <v>6.7055393586005598</v>
+      </c>
+      <c r="H98">
+        <v>1.52126694694165</v>
+      </c>
+      <c r="I98">
+        <v>9.8837458089637897E-2</v>
+      </c>
+      <c r="J98">
+        <v>12.466666666666667</v>
+      </c>
+      <c r="K98">
+        <v>0.859798109201108</v>
+      </c>
+      <c r="L98">
+        <v>103.302454210115</v>
+      </c>
+      <c r="M98">
+        <v>1049.8738565377701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B99">
+        <v>0.99739653473638101</v>
+      </c>
+      <c r="C99">
+        <v>2.4131719179948998</v>
+      </c>
+      <c r="D99">
+        <v>0.78138021241003219</v>
+      </c>
+      <c r="E99">
+        <v>0.84450277258276696</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="0"/>
+        <v>0.36227218809131534</v>
+      </c>
+      <c r="G99">
+        <v>1.27504553734063</v>
+      </c>
+      <c r="H99">
+        <v>2.4277652785504298</v>
+      </c>
+      <c r="I99">
+        <v>0.110761822516922</v>
+      </c>
+      <c r="J99">
+        <v>22.233333333333334</v>
+      </c>
+      <c r="K99">
+        <v>0.67488397148184698</v>
+      </c>
+      <c r="L99">
+        <v>113.325166528607</v>
+      </c>
+      <c r="M99">
+        <v>1018.74395061008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B100">
+        <v>2.1723102341294198</v>
+      </c>
+      <c r="C100">
+        <v>2.1013687242655799</v>
+      </c>
+      <c r="D100">
+        <v>0.93490034102339248</v>
+      </c>
+      <c r="E100">
+        <v>0.92017940562514333</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ref="F100:F106" si="1">AVERAGE(B97:B100)-D96</f>
+        <v>0.82089248013101979</v>
+      </c>
+      <c r="G100">
+        <v>4.6762589928057396</v>
+      </c>
+      <c r="H100">
+        <v>1.1649723864207699</v>
+      </c>
+      <c r="I100">
+        <v>0.12152467642987699</v>
+      </c>
+      <c r="J100">
+        <v>27.366666666666664</v>
+      </c>
+      <c r="K100">
+        <v>0.71693853753897896</v>
+      </c>
+      <c r="L100">
+        <v>118.270511304872</v>
+      </c>
+      <c r="M100">
+        <v>975.30458846795204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B101">
+        <v>3.02836429475922</v>
+      </c>
+      <c r="C101">
+        <v>2.7077632130274099</v>
+      </c>
+      <c r="D101">
+        <v>1.2735201396371298</v>
+      </c>
+      <c r="E101">
+        <v>1.1861411867354787</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1.3880700474386365</v>
+      </c>
+      <c r="G101">
+        <v>7.1305841924398496</v>
+      </c>
+      <c r="H101">
+        <v>2.9617301975515802</v>
+      </c>
+      <c r="I101">
+        <v>0.134930664018411</v>
+      </c>
+      <c r="J101">
+        <v>33.633333333333333</v>
+      </c>
+      <c r="K101">
+        <v>0.73302541271335997</v>
+      </c>
+      <c r="L101">
+        <v>124.488412045421</v>
+      </c>
+      <c r="M101">
+        <v>927.03119494113196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B102">
+        <v>3.6172132590219901</v>
+      </c>
+      <c r="C102">
+        <v>2.93372031520355</v>
+      </c>
+      <c r="D102">
+        <v>1.6648372586637095</v>
+      </c>
+      <c r="E102">
+        <v>1.3432585407893605</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>1.7698126931002669</v>
+      </c>
+      <c r="G102">
+        <v>11.467522052927</v>
+      </c>
+      <c r="H102">
+        <v>1.7439947179125901</v>
+      </c>
+      <c r="I102">
+        <v>0.13346006599927501</v>
+      </c>
+      <c r="J102">
+        <v>30.900000000000002</v>
+      </c>
+      <c r="K102">
+        <v>1.3465509172715899</v>
+      </c>
+      <c r="L102">
+        <v>117.262236313472</v>
+      </c>
+      <c r="M102">
+        <v>878.501786661187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B103">
+        <v>4.7429467003784502</v>
+      </c>
+      <c r="C103">
+        <v>3.48613168776353</v>
+      </c>
+      <c r="D103">
+        <v>2.1600209457409925</v>
+      </c>
+      <c r="E103">
+        <v>1.6604469689808221</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>2.6088284096622378</v>
+      </c>
+      <c r="G103">
+        <v>11.079136690647401</v>
+      </c>
+      <c r="H103">
+        <v>6.8017458422673602</v>
+      </c>
+      <c r="I103">
+        <v>0.11923794034066899</v>
+      </c>
+      <c r="J103">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="K103">
+        <v>0.28941039757839299</v>
+      </c>
+      <c r="L103">
+        <v>101.041811708504</v>
+      </c>
+      <c r="M103">
+        <v>844.90622259298004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B104">
+        <v>3.4577096443416</v>
+      </c>
+      <c r="C104">
+        <v>3.6918078032614399</v>
+      </c>
+      <c r="D104">
+        <v>2.4465343437167553</v>
+      </c>
+      <c r="E104">
+        <v>1.8400887517543874</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>2.7766581336019227</v>
+      </c>
+      <c r="G104">
+        <v>1.23056994818652</v>
+      </c>
+      <c r="H104">
+        <v>5.6302040129856001</v>
+      </c>
+      <c r="I104">
+        <v>0.11495968270469099</v>
+      </c>
+      <c r="J104">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="K104">
+        <v>0.842558530134212</v>
+      </c>
+      <c r="L104">
+        <v>94.540902144635396</v>
+      </c>
+      <c r="M104">
+        <v>825.69754623548101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B105">
+        <v>2.7524242188624499</v>
+      </c>
+      <c r="C105">
+        <v>2.3497436504464799</v>
+      </c>
+      <c r="D105">
+        <v>2.6777911028901924</v>
+      </c>
+      <c r="E105">
+        <v>1.6640384944703657</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>2.3690533160139928</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>4.8736543560960097</v>
+      </c>
+      <c r="I105">
+        <v>0.10821784962120599</v>
+      </c>
+      <c r="J105">
+        <v>25</v>
+      </c>
+      <c r="K105">
+        <v>0.204334397003023</v>
+      </c>
+      <c r="L105">
+        <v>88.802899963428899</v>
+      </c>
+      <c r="M105">
+        <v>822.70380476375396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B106">
+        <v>3.3952427034174302</v>
+      </c>
+      <c r="C106">
+        <v>3.62108347596104</v>
+      </c>
+      <c r="D106">
+        <v>2.4314633665607266</v>
+      </c>
+      <c r="E106">
+        <v>1.5575251032412307</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>1.9222435580862731</v>
+      </c>
+      <c r="G106">
+        <v>6.5898912348048304</v>
+      </c>
+      <c r="H106">
+        <v>4.8691340883229</v>
+      </c>
+      <c r="I106">
+        <v>0.107527396916289</v>
+      </c>
+      <c r="J106">
+        <v>18.8</v>
+      </c>
+      <c r="K106">
+        <v>1.0486454767993501</v>
+      </c>
+      <c r="L106">
+        <v>87.9390136431076</v>
+      </c>
+      <c r="M106">
+        <v>820.05440114389501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D107">
+        <v>2.4106298688571171</v>
+      </c>
+      <c r="E107">
+        <v>1.616923050305008</v>
+      </c>
+      <c r="J107">
+        <v>16.599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACC8CED-4B26-4051-AA88-F0C709CBC493}">
   <dimension ref="A1:K107"/>
   <sheetViews>
@@ -3986,12 +8047,12 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4026,7 +8087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>35431</v>
       </c>
@@ -4043,7 +8104,7 @@
         <v>1.5924618522673952</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>35521</v>
       </c>
@@ -4060,7 +8121,7 @@
         <v>1.589441612298949</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>35612</v>
       </c>
@@ -4077,7 +8138,7 @@
         <v>0.8443197422452875</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>35704</v>
       </c>
@@ -4094,7 +8155,7 @@
         <v>1.2643369309509001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>35796</v>
       </c>
@@ -4111,7 +8172,7 @@
         <v>1.037380347192959</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>35886</v>
       </c>
@@ -4128,7 +8189,7 @@
         <v>0.85395026429455378</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>35977</v>
       </c>
@@ -4145,7 +8206,7 @@
         <v>0.98744094155617956</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>36069</v>
       </c>
@@ -4162,7 +8223,7 @@
         <v>1.8840600046503808</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>36161</v>
       </c>
@@ -4179,7 +8240,7 @@
         <v>0.92795538049594306</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>36251</v>
       </c>
@@ -4196,7 +8257,7 @@
         <v>1.344139968633242</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>36342</v>
       </c>
@@ -4213,7 +8274,7 @@
         <v>2.000503147761866</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>36434</v>
       </c>
@@ -4230,7 +8291,7 @@
         <v>2.5790482772795782</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>36526</v>
       </c>
@@ -4253,7 +8314,7 @@
         <v>1.9850667465774445</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>36617</v>
       </c>
@@ -4276,7 +8337,7 @@
         <v>2.1921309661170558</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>36708</v>
       </c>
@@ -4299,7 +8360,7 @@
         <v>2.2079435745297311</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>36800</v>
       </c>
@@ -4322,7 +8383,7 @@
         <v>2.790019076175831</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>36892</v>
       </c>
@@ -4345,7 +8406,7 @@
         <v>2.418720435946581</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36982</v>
       </c>
@@ -4368,7 +8429,7 @@
         <v>1.9347227511996647</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -4391,7 +8452,7 @@
         <v>1.6297083603137696</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>37165</v>
       </c>
@@ -4417,7 +8478,7 @@
         <v>1.4682286545641949</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>37257</v>
       </c>
@@ -4443,7 +8504,7 @@
         <v>1.6191668437544446</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>37347</v>
       </c>
@@ -4469,7 +8530,7 @@
         <v>1.6225687812362422</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>37438</v>
       </c>
@@ -4495,7 +8556,7 @@
         <v>1.7914899060597222</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>37530</v>
       </c>
@@ -4521,7 +8582,7 @@
         <v>1.31566878530356</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -4547,7 +8608,7 @@
         <v>1.6453396851843476</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>37712</v>
       </c>
@@ -4573,7 +8634,7 @@
         <v>1.7323211018317703</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>37803</v>
       </c>
@@ -4599,7 +8660,7 @@
         <v>1.7240614921607484</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>37895</v>
       </c>
@@ -4625,7 +8686,7 @@
         <v>1.3538345302265733</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>37987</v>
       </c>
@@ -4651,7 +8712,7 @@
         <v>1.7845592311867136</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>38078</v>
       </c>
@@ -4683,7 +8744,7 @@
         <v>1.587792736921815</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>38169</v>
       </c>
@@ -4715,7 +8776,7 @@
         <v>1.0712036207993909</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>38261</v>
       </c>
@@ -4747,7 +8808,7 @@
         <v>1.0275001225370908</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>38353</v>
       </c>
@@ -4779,7 +8840,7 @@
         <v>1.1542401102063158</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>38443</v>
       </c>
@@ -4815,7 +8876,7 @@
         <v>0.91060875964793575</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>38534</v>
       </c>
@@ -4851,7 +8912,7 @@
         <v>0.69175641963028078</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>38626</v>
       </c>
@@ -4887,7 +8948,7 @@
         <v>0.97265204838814312</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>38718</v>
       </c>
@@ -4923,7 +8984,7 @@
         <v>0.82588286342802775</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38808</v>
       </c>
@@ -4959,7 +9020,7 @@
         <v>0.81517677034235914</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38899</v>
       </c>
@@ -4995,7 +9056,7 @@
         <v>0.97778696215085037</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>38991</v>
       </c>
@@ -5031,7 +9092,7 @@
         <v>0.78248811358946302</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39083</v>
       </c>
@@ -5067,7 +9128,7 @@
         <v>0.94595649107651791</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39173</v>
       </c>
@@ -5103,7 +9164,7 @@
         <v>0.90274396125427292</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39264</v>
       </c>
@@ -5139,7 +9200,7 @@
         <v>1.0084406310104825</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39356</v>
       </c>
@@ -5175,7 +9236,7 @@
         <v>0.95201533050415765</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>39448</v>
       </c>
@@ -5211,7 +9272,7 @@
         <v>0.73120290650578279</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>39539</v>
       </c>
@@ -5247,7 +9308,7 @@
         <v>0.6224172988649791</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>39630</v>
       </c>
@@ -5283,7 +9344,7 @@
         <v>0.49351847598284515</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>39722</v>
       </c>
@@ -5319,7 +9380,7 @@
         <v>0.86852387525163277</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39814</v>
       </c>
@@ -5355,7 +9416,7 @@
         <v>0.62923698563215269</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39904</v>
       </c>
@@ -5391,7 +9452,7 @@
         <v>0.66582435449188548</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39995</v>
       </c>
@@ -5427,7 +9488,7 @@
         <v>0.61830883687322935</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40087</v>
       </c>
@@ -5463,7 +9524,7 @@
         <v>1.0851851422773793</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40179</v>
       </c>
@@ -5499,7 +9560,7 @@
         <v>1.0895993536409916</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40269</v>
       </c>
@@ -5535,7 +9596,7 @@
         <v>1.2018212442171945</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40360</v>
       </c>
@@ -5571,7 +9632,7 @@
         <v>1.5740753894452209</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40452</v>
       </c>
@@ -5607,7 +9668,7 @@
         <v>1.906163501670558</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40544</v>
       </c>
@@ -5643,7 +9704,7 @@
         <v>1.5811074510798955</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>40634</v>
       </c>
@@ -5679,7 +9740,7 @@
         <v>1.7371842864715579</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>40725</v>
       </c>
@@ -5715,7 +9776,7 @@
         <v>2.011366677399526</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>40817</v>
       </c>
@@ -5751,7 +9812,7 @@
         <v>1.7342165049357638</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>40909</v>
       </c>
@@ -5787,7 +9848,7 @@
         <v>1.4210048791632139</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41000</v>
       </c>
@@ -5823,7 +9884,7 @@
         <v>1.3274848515812909</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41091</v>
       </c>
@@ -5859,7 +9920,7 @@
         <v>1.3245488480548531</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41183</v>
       </c>
@@ -5895,7 +9956,7 @@
         <v>1.0020369560914535</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41275</v>
       </c>
@@ -5931,7 +9992,7 @@
         <v>0.9107250488471661</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41365</v>
       </c>
@@ -5967,7 +10028,7 @@
         <v>0.9397019522670762</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -6003,7 +10064,7 @@
         <v>0.80671156782027698</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41548</v>
       </c>
@@ -6039,7 +10100,7 @@
         <v>0.58088950966437736</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41640</v>
       </c>
@@ -6075,7 +10136,7 @@
         <v>0.68655179017463963</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41730</v>
       </c>
@@ -6111,7 +10172,7 @@
         <v>0.90252399992437238</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41821</v>
       </c>
@@ -6147,7 +10208,7 @@
         <v>0.86719254803671153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41913</v>
       </c>
@@ -6183,7 +10244,7 @@
         <v>0.91747906666344892</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42005</v>
       </c>
@@ -6219,7 +10280,7 @@
         <v>1.0362859599353615</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42095</v>
       </c>
@@ -6255,7 +10316,7 @@
         <v>0.9999068251099803</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42186</v>
       </c>
@@ -6291,7 +10352,7 @@
         <v>1.0542042638230149</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42278</v>
       </c>
@@ -6327,7 +10388,7 @@
         <v>1.1813638106826398</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42370</v>
       </c>
@@ -6363,7 +10424,7 @@
         <v>0.99398459591468979</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42461</v>
       </c>
@@ -6399,7 +10460,7 @@
         <v>1.0463472644953662</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42552</v>
       </c>
@@ -6435,7 +10496,7 @@
         <v>1.1050457601194872</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42644</v>
       </c>
@@ -6471,7 +10532,7 @@
         <v>1.3451837195025873</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42736</v>
       </c>
@@ -6507,7 +10568,7 @@
         <v>1.2109805794992372</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42826</v>
       </c>
@@ -6543,7 +10604,7 @@
         <v>1.1898197276622164</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42917</v>
       </c>
@@ -6579,7 +10640,7 @@
         <v>1.3102466259247123</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43009</v>
       </c>
@@ -6615,7 +10676,7 @@
         <v>1.4673870855978999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43101</v>
       </c>
@@ -6651,7 +10712,7 @@
         <v>1.7493824536101754</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43191</v>
       </c>
@@ -6687,7 +10748,7 @@
         <v>1.5782622204981309</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43282</v>
       </c>
@@ -6723,7 +10784,7 @@
         <v>1.7202430746620261</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43374</v>
       </c>
@@ -6759,7 +10820,7 @@
         <v>1.5874328317056137</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43466</v>
       </c>
@@ -6795,7 +10856,7 @@
         <v>1.8100842820535012</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43556</v>
       </c>
@@ -6831,7 +10892,7 @@
         <v>1.7754559216318961</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43647</v>
       </c>
@@ -6867,7 +10928,7 @@
         <v>1.7091927694954239</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43739</v>
       </c>
@@ -6903,7 +10964,7 @@
         <v>1.4573274167787735</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43831</v>
       </c>
@@ -6939,7 +11000,7 @@
         <v>1.3061956738007985</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43922</v>
       </c>
@@ -6975,7 +11036,7 @@
         <v>0.28947871335042241</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44013</v>
       </c>
@@ -7011,7 +11072,7 @@
         <v>0.99499524856646882</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44105</v>
       </c>
@@ -7047,7 +11108,7 @@
         <v>0.53720781255490624</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44197</v>
       </c>
@@ -7083,7 +11144,7 @@
         <v>0.45505465136463119</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44287</v>
       </c>
@@ -7119,7 +11180,7 @@
         <v>0.60879592211160638</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44378</v>
       </c>
@@ -7155,7 +11216,7 @@
         <v>0.9172958268826914</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44470</v>
       </c>
@@ -7191,7 +11252,7 @@
         <v>0.98220396602906668</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44562</v>
       </c>
@@ -7227,7 +11288,7 @@
         <v>1.2730289850770917</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44652</v>
       </c>
@@ -7263,7 +11324,7 @@
         <v>1.930944650506828</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44743</v>
       </c>
@@ -7299,7 +11360,7 @@
         <v>1.6423692073378242</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44835</v>
       </c>
@@ -7335,7 +11396,7 @@
         <v>1.3179819200315455</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44927</v>
       </c>
@@ -7371,7 +11432,7 @@
         <v>1.2789254170709332</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45017</v>
       </c>
@@ -7390,7 +11451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
@@ -7401,12 +11462,12 @@
       <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -7441,7 +11502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>35431</v>
       </c>
@@ -7455,7 +11516,7 @@
         <v>17.684210526315699</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>35521</v>
       </c>
@@ -7469,7 +11530,7 @@
         <v>11.591355599214101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>35612</v>
       </c>
@@ -7483,7 +11544,7 @@
         <v>13.359528487229801</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>35704</v>
       </c>
@@ -7500,7 +11561,7 @@
         <v>4.3428571428571425</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>35796</v>
       </c>
@@ -7517,7 +11578,7 @@
         <v>4.9749999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>35886</v>
       </c>
@@ -7534,7 +11595,7 @@
         <v>4.3375000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>35977</v>
       </c>
@@ -7551,7 +11612,7 @@
         <v>3.5125000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>36069</v>
       </c>
@@ -7568,7 +11629,7 @@
         <v>3.6125000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>36161</v>
       </c>
@@ -7585,7 +11646,7 @@
         <v>4.1625000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>36251</v>
       </c>
@@ -7602,7 +11663,7 @@
         <v>3.9125000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>36342</v>
       </c>
@@ -7619,7 +11680,7 @@
         <v>4.2624999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>36434</v>
       </c>
@@ -7636,7 +11697,7 @@
         <v>5.1625000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>36526</v>
       </c>
@@ -7659,7 +11720,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>36617</v>
       </c>
@@ -7682,7 +11743,7 @@
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>36708</v>
       </c>
@@ -7705,7 +11766,7 @@
         <v>7.4249999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>36800</v>
       </c>
@@ -7728,7 +11789,7 @@
         <v>7.4875000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>36892</v>
       </c>
@@ -7751,7 +11812,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36982</v>
       </c>
@@ -7774,7 +11835,7 @@
         <v>7.8624999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -7797,7 +11858,7 @@
         <v>7.4874999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>37165</v>
       </c>
@@ -7820,7 +11881,7 @@
         <v>6.7749999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>37257</v>
       </c>
@@ -7843,7 +11904,7 @@
         <v>5.3375000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>37347</v>
       </c>
@@ -7866,7 +11927,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>37438</v>
       </c>
@@ -7892,7 +11953,7 @@
         <v>4.2875000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>37530</v>
       </c>
@@ -7918,7 +11979,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>37622</v>
       </c>
@@ -7944,7 +12005,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>37712</v>
       </c>
@@ -7970,7 +12031,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>37803</v>
       </c>
@@ -7996,7 +12057,7 @@
         <v>4.7875000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>37895</v>
       </c>
@@ -8022,7 +12083,7 @@
         <v>4.8250000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>37987</v>
       </c>
@@ -8048,7 +12109,7 @@
         <v>4.9625000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>38078</v>
       </c>
@@ -8080,7 +12141,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>38169</v>
       </c>
@@ -8112,7 +12173,7 @@
         <v>5.1499999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>38261</v>
       </c>
@@ -8144,7 +12205,7 @@
         <v>4.5750000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>38353</v>
       </c>
@@ -8176,7 +12237,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>38443</v>
       </c>
@@ -8212,7 +12273,7 @@
         <v>3.6750000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>38534</v>
       </c>
@@ -8248,7 +12309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>38626</v>
       </c>
@@ -8284,7 +12345,7 @@
         <v>2.6375000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>38718</v>
       </c>
@@ -8320,7 +12381,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38808</v>
       </c>
@@ -8356,7 +12417,7 @@
         <v>2.1749999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38899</v>
       </c>
@@ -8392,7 +12453,7 @@
         <v>2.0249999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>38991</v>
       </c>
@@ -8428,7 +12489,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39083</v>
       </c>
@@ -8464,7 +12525,7 @@
         <v>2.0875000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39173</v>
       </c>
@@ -8500,7 +12561,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>39264</v>
       </c>
@@ -8536,7 +12597,7 @@
         <v>2.3875000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39356</v>
       </c>
@@ -8572,7 +12633,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>39448</v>
       </c>
@@ -8608,7 +12669,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>39539</v>
       </c>
@@ -8644,7 +12705,7 @@
         <v>2.4125000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>39630</v>
       </c>
@@ -8680,7 +12741,7 @@
         <v>2.1125000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>39722</v>
       </c>
@@ -8716,7 +12777,7 @@
         <v>1.5625000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39814</v>
       </c>
@@ -8752,7 +12813,7 @@
         <v>1.4125000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39904</v>
       </c>
@@ -8788,7 +12849,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39995</v>
       </c>
@@ -8824,7 +12885,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40087</v>
       </c>
@@ -8860,7 +12921,7 @@
         <v>1.2874999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40179</v>
       </c>
@@ -8896,7 +12957,7 @@
         <v>1.4249999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40269</v>
       </c>
@@ -8932,7 +12993,7 @@
         <v>1.8374999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40360</v>
       </c>
@@ -8968,7 +13029,7 @@
         <v>2.3250000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40452</v>
       </c>
@@ -9004,7 +13065,7 @@
         <v>3.2499999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40544</v>
       </c>
@@ -9040,7 +13101,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>40634</v>
       </c>
@@ -9076,7 +13137,7 @@
         <v>4.4624999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>40725</v>
       </c>
@@ -9112,7 +13173,7 @@
         <v>4.9125000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>40817</v>
       </c>
@@ -9148,7 +13209,7 @@
         <v>5.2750000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>40909</v>
       </c>
@@ -9184,7 +13245,7 @@
         <v>5.0874999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41000</v>
       </c>
@@ -9220,7 +13281,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41091</v>
       </c>
@@ -9256,7 +13317,7 @@
         <v>4.4625000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>41183</v>
       </c>
@@ -9292,7 +13353,7 @@
         <v>3.7374999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>41275</v>
       </c>
@@ -9328,7 +13389,7 @@
         <v>2.9874999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>41365</v>
       </c>
@@ -9364,7 +13425,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>41456</v>
       </c>
@@ -9400,7 +13461,7 @@
         <v>2.1375000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>41548</v>
       </c>
@@ -9436,7 +13497,7 @@
         <v>1.6250000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>41640</v>
       </c>
@@ -9472,7 +13533,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>41730</v>
       </c>
@@ -9508,7 +13569,7 @@
         <v>1.0250000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>41821</v>
       </c>
@@ -9544,7 +13605,7 @@
         <v>1.0375000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>41913</v>
       </c>
@@ -9580,7 +13641,7 @@
         <v>1.1375</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42005</v>
       </c>
@@ -9616,7 +13677,7 @@
         <v>1.4875</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42095</v>
       </c>
@@ -9652,7 +13713,7 @@
         <v>1.8374999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42186</v>
       </c>
@@ -9688,7 +13749,7 @@
         <v>1.9499999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42278</v>
       </c>
@@ -9724,7 +13785,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42370</v>
       </c>
@@ -9760,7 +13821,7 @@
         <v>2.4250000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42461</v>
       </c>
@@ -9796,7 +13857,7 @@
         <v>2.3375000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42552</v>
       </c>
@@ -9832,7 +13893,7 @@
         <v>2.3250000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42644</v>
       </c>
@@ -9868,7 +13929,7 @@
         <v>2.3375000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42736</v>
       </c>
@@ -9904,7 +13965,7 @@
         <v>2.4374999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42826</v>
       </c>
@@ -9940,7 +14001,7 @@
         <v>2.6124999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42917</v>
       </c>
@@ -9976,7 +14037,7 @@
         <v>2.6999999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43009</v>
       </c>
@@ -10012,7 +14073,7 @@
         <v>2.8625000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43101</v>
       </c>
@@ -10048,7 +14109,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43191</v>
       </c>
@@ -10084,7 +14145,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43282</v>
       </c>
@@ -10120,7 +14181,7 @@
         <v>3.9625000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43374</v>
       </c>
@@ -10156,7 +14217,7 @@
         <v>4.4124999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43466</v>
       </c>
@@ -10192,7 +14253,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43556</v>
       </c>
@@ -10228,7 +14289,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43647</v>
       </c>
@@ -10264,7 +14325,7 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43739</v>
       </c>
@@ -10300,7 +14361,7 @@
         <v>5.0374999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43831</v>
       </c>
@@ -10336,7 +14397,7 @@
         <v>4.9749999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43922</v>
       </c>
@@ -10372,7 +14433,7 @@
         <v>4.4625000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44013</v>
       </c>
@@ -10408,7 +14469,7 @@
         <v>2.9750000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44105</v>
       </c>
@@ -10444,7 +14505,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44197</v>
       </c>
@@ -10480,7 +14541,7 @@
         <v>1.2625</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44287</v>
       </c>
@@ -10516,7 +14577,7 @@
         <v>0.38750000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44378</v>
       </c>
@@ -10552,7 +14613,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44470</v>
       </c>
@@ -10588,7 +14649,7 @@
         <v>0.6625000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44562</v>
       </c>
@@ -10624,7 +14685,7 @@
         <v>1.0874999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44652</v>
       </c>
@@ -10660,7 +14721,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44743</v>
       </c>
@@ -10696,7 +14757,7 @@
         <v>3.3375000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44835</v>
       </c>
@@ -10732,7 +14793,7 @@
         <v>4.1624999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44927</v>
       </c>
@@ -10768,7 +14829,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>45017</v>
       </c>
@@ -10804,24 +14865,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFB8F79-0BD5-41B9-8BBD-D40B96056D82}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -10844,7 +14905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10870,7 +14931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10894,7 +14955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10908,7 +14969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10922,7 +14983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -10948,7 +15009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10974,7 +15035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10994,7 +15055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -11017,7 +15078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -11043,7 +15104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>53</v>
       </c>
